--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 14-12-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 14-12-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$549</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$548</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="508">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -1327,178 +1327,187 @@
     <t>احمد حسين</t>
   </si>
   <si>
+    <t>عبدالله طارق</t>
+  </si>
+  <si>
+    <t>يوسف سيف</t>
+  </si>
+  <si>
+    <t>ريم شومان</t>
+  </si>
+  <si>
+    <t>حسام الدين وليد مصطفى</t>
+  </si>
+  <si>
+    <t>مارتن ناير</t>
+  </si>
+  <si>
+    <t>من 11 م</t>
+  </si>
+  <si>
+    <t>عمرو تامر</t>
+  </si>
+  <si>
+    <t>يوسف صديق</t>
+  </si>
+  <si>
+    <t>سجا عامر</t>
+  </si>
+  <si>
+    <t>لوكا اميل</t>
+  </si>
+  <si>
+    <t>حسام محمد نبيل حمدي</t>
+  </si>
+  <si>
+    <t>عبد الله جمال</t>
+  </si>
+  <si>
+    <t>موسى وحيد عزت زكي</t>
+  </si>
+  <si>
+    <t>محمد ابوبكر</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
+  </si>
+  <si>
+    <t>احمد شبل</t>
+  </si>
+  <si>
+    <t>مازن اشرف</t>
+  </si>
+  <si>
+    <t>عبد الرؤوف محمود</t>
+  </si>
+  <si>
+    <t>مازن الباجوري</t>
+  </si>
+  <si>
+    <t>مصطفى مدحت</t>
+  </si>
+  <si>
+    <t>مصطفى حازم</t>
+  </si>
+  <si>
+    <t>ضحى عامر</t>
+  </si>
+  <si>
+    <t>ممدوح تبدي</t>
+  </si>
+  <si>
+    <t>مريم السماك</t>
+  </si>
+  <si>
+    <t>محمد علاء</t>
+  </si>
+  <si>
+    <t>1128109338_00249901091101</t>
+  </si>
+  <si>
+    <t>كريم الدين امير صلاح</t>
+  </si>
+  <si>
+    <t>أمل نبيل</t>
+  </si>
+  <si>
+    <t>1225392073 / 1550558440</t>
+  </si>
+  <si>
+    <t>يوسف طاهر</t>
+  </si>
+  <si>
+    <t>جاسم أسامة</t>
+  </si>
+  <si>
+    <t>احمد فهمى</t>
+  </si>
+  <si>
+    <t>حسام الامين</t>
+  </si>
+  <si>
+    <t>باسل هشام</t>
+  </si>
+  <si>
+    <t>محمد أيمن</t>
+  </si>
+  <si>
+    <t>إياد ياسر</t>
+  </si>
+  <si>
+    <t>1044637937/1108373366</t>
+  </si>
+  <si>
+    <t>محمد البدري بابكر</t>
+  </si>
+  <si>
+    <t>بوابه 24</t>
+  </si>
+  <si>
+    <t>سعيد الليثي</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
+    <t>مريم رشوان</t>
+  </si>
+  <si>
+    <t>1557655853 / 249965691878</t>
+  </si>
+  <si>
+    <t>عبد المنعم خالد</t>
+  </si>
+  <si>
+    <t>ندى أحمد جاسم</t>
+  </si>
+  <si>
+    <t>هتون ناجي</t>
+  </si>
+  <si>
+    <t>ألوك مايوم</t>
+  </si>
+  <si>
+    <t>ندى سعد</t>
+  </si>
+  <si>
+    <t>احمد المنياوي</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>محمود حسن</t>
+  </si>
+  <si>
+    <t>خطاب بشير محمد أحمد</t>
+  </si>
+  <si>
+    <t>عبدالله أيمن</t>
+  </si>
+  <si>
+    <t>حباب خالد</t>
+  </si>
+  <si>
+    <t>ياسين عمرو</t>
+  </si>
+  <si>
+    <t>محمود عاطف</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>جودي موسى</t>
+  </si>
+  <si>
     <t>1101101665/1555121109</t>
   </si>
   <si>
     <t>دانيا خالد يوسف</t>
   </si>
   <si>
-    <t>عبدالله طارق</t>
-  </si>
-  <si>
-    <t>يوسف سيف</t>
-  </si>
-  <si>
-    <t>ريم شومان</t>
-  </si>
-  <si>
-    <t>حسام الدين وليد مصطفى</t>
-  </si>
-  <si>
-    <t>عمرو تامر</t>
-  </si>
-  <si>
-    <t>يوسف صديق</t>
-  </si>
-  <si>
-    <t>سجا عامر</t>
-  </si>
-  <si>
-    <t>لوكا اميل</t>
-  </si>
-  <si>
-    <t>حسام محمد نبيل حمدي</t>
-  </si>
-  <si>
-    <t>عبد الله جمال</t>
-  </si>
-  <si>
-    <t>موسى وحيد عزت زكي</t>
-  </si>
-  <si>
-    <t>محمد ابوبكر</t>
-  </si>
-  <si>
-    <t>ولي العهد</t>
-  </si>
-  <si>
-    <t>احمد شبل</t>
-  </si>
-  <si>
-    <t>مازن اشرف</t>
-  </si>
-  <si>
-    <t>عبد الرؤوف محمود</t>
-  </si>
-  <si>
-    <t>مازن الباجوري</t>
-  </si>
-  <si>
-    <t>مصطفى مدحت</t>
-  </si>
-  <si>
-    <t>مصطفى حازم</t>
-  </si>
-  <si>
-    <t>ضحى عامر</t>
-  </si>
-  <si>
-    <t>ممدوح تبدي</t>
-  </si>
-  <si>
-    <t>مريم السماك</t>
-  </si>
-  <si>
-    <t>محمد علاء</t>
-  </si>
-  <si>
-    <t>1128109338_00249901091101</t>
-  </si>
-  <si>
-    <t>كريم الدين امير صلاح</t>
-  </si>
-  <si>
-    <t>أمل نبيل</t>
-  </si>
-  <si>
-    <t>1225392073 / 1550558440</t>
-  </si>
-  <si>
-    <t>يوسف طاهر</t>
-  </si>
-  <si>
-    <t>جاسم أسامة</t>
-  </si>
-  <si>
-    <t>احمد فهمى</t>
-  </si>
-  <si>
-    <t>حسام الامين</t>
-  </si>
-  <si>
-    <t>باسل هشام</t>
-  </si>
-  <si>
-    <t>محمد أيمن</t>
-  </si>
-  <si>
-    <t>إياد ياسر</t>
-  </si>
-  <si>
-    <t>1044637937/1108373366</t>
-  </si>
-  <si>
-    <t>محمد البدري بابكر</t>
-  </si>
-  <si>
-    <t>بوابه 24</t>
-  </si>
-  <si>
-    <t>سعيد الليثي</t>
-  </si>
-  <si>
-    <t>الحي العاشر</t>
-  </si>
-  <si>
-    <t>مريم رشوان</t>
-  </si>
-  <si>
-    <t>1557655853 / 249965691878</t>
-  </si>
-  <si>
-    <t>عبد المنعم خالد</t>
-  </si>
-  <si>
-    <t>ندى أحمد جاسم</t>
-  </si>
-  <si>
-    <t>هتون ناجي</t>
-  </si>
-  <si>
-    <t>ألوك مايوم</t>
-  </si>
-  <si>
-    <t>ندى سعد</t>
-  </si>
-  <si>
-    <t>احمد المنياوي</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>محمود حسن</t>
-  </si>
-  <si>
-    <t>خطاب بشير محمد أحمد</t>
-  </si>
-  <si>
-    <t>عبدالله أيمن</t>
-  </si>
-  <si>
-    <t>حباب خالد</t>
-  </si>
-  <si>
-    <t>ياسين عمرو</t>
-  </si>
-  <si>
-    <t>محمود عاطف</t>
-  </si>
-  <si>
-    <t>مصطفى محمد</t>
-  </si>
-  <si>
-    <t>جودي موسى</t>
+    <t>من 8 م</t>
   </si>
   <si>
     <t>ميكائيل عبدالله</t>
@@ -1517,9 +1526,6 @@
   </si>
   <si>
     <t>يوسف عبد الله</t>
-  </si>
-  <si>
-    <t>مارتن ناير</t>
   </si>
   <si>
     <t>1552409918 / +249966293122</t>
@@ -1800,7 +1806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1816,6 +1822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,7 +2175,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2187,16 +2199,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2205,85 +2217,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2297,7 +2309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2371,16 +2383,22 @@
     <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4880,611 +4898,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{38FCB648-0A7F-4477-AFB5-5ACBB8394A21}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{69054494-1145-4D24-BE7D-5C70899D2E06}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{BE4D0DE7-1696-4AA0-9BFC-A75D5A8EBB07}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{F608E44B-6C0B-4BDD-8F20-CF03996489C5}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{4133AD2F-5C8E-4FDD-8F3F-E0BD5C7C50A9}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{0834F231-A1C2-4E38-ADE7-DF5E32AD372D}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{32CD51A2-D270-4BD6-B453-2AC3EEFA2531}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{8357071A-F6F6-451F-8A1D-51DCA0849D5D}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{8A5E617B-8948-464C-97BE-1B3B0D72D9A2}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{6B6295CB-A077-441E-A926-E54B20FD8329}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{4E763A23-3415-48CE-8FE9-BE11F49CC84C}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{E14668EB-B527-43DA-A440-EEA97E7ED7A4}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{8BBBEC50-CAA5-49BD-B21B-0ECEB60C134F}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{DB76B440-89AB-438C-8201-2C7CE293DF91}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{CA215E45-72C0-44DC-BD1B-A587400BCEDF}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{6E68D853-00F3-4727-9E70-845B1785F792}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{8E180B2F-8409-45CD-BC4F-1CA26393E762}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{8D1BD0A2-A277-4A28-9680-08718B508D64}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{D26AACD7-0FF8-4CC5-A80B-3F26489B46BB}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{809D0A4B-8AF8-405C-9F39-BE50FA9AA7A7}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{86018D4D-CA51-47FE-8D98-6C2B7C0F2CD2}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{AA0D9781-304C-4432-AF54-B63FCD25BCAD}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{56805795-AD85-4510-A3C4-F17C6F330DF3}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{13EC4789-255F-4819-AB1E-F53AC05D3132}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{E6CAB073-9157-423B-A9B0-30C236F790A0}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{94A09F15-A9E2-41A6-BC06-C42E043DBBFC}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{F54611C8-643A-49B0-8F99-4A541030DAE4}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{31C9AB29-39D6-45E7-81D6-A080CABF182D}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{D2A40F0B-D266-44DA-877C-2DA733C69117}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{657A8FF2-DF18-49B2-9C18-73155F98F382}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{A08B013E-D96D-4C30-B0DD-5C4F3EA2D755}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{58A4DFE6-AAE8-4422-BD1E-3DC1EFB54570}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{60D8D46B-0E73-4937-AC11-1DA97689E941}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{A82E58EF-D410-4EF5-836C-CFD160D4556F}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{A2ABA7D3-55EC-4218-90A1-934C7830226D}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{9ED5AD33-9906-4AF9-9D65-1D18F08E12D2}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{51FA868D-8F5B-471C-94D3-559850A569CE}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{592E9098-5EFC-49A6-AFAE-792AE94E8323}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{9B20CEC8-0034-4C2E-B665-E4E38DCB50CE}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{EE9F257A-7986-419A-B1D1-27EC1DD897F9}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{43C22788-C03A-46E0-9BB7-63BC9A297957}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{18F2BD74-2C1B-4980-8D61-018A384687B0}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{7AF98723-FD49-43DF-9B56-E2CDC0CBEF99}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{6B6A227A-7D9C-4832-B7E4-346BA8B5369E}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{D79D4A5E-B40C-489C-B961-6870855D6974}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{FE0C55A4-5CCE-4E7E-8E0E-7761CB2BE166}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{B19D26B8-6ACA-4FF7-B1A6-DDE0236010EE}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{46BD1ACE-2A10-4DFE-8D6A-0A13D008ED90}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{CA4CA7D3-AF04-4210-BE2C-04695C8482F6}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{AAC9123A-8A3A-4D55-B239-1A022EBC001A}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{F2544DD5-3FB3-4D6A-897C-ED8ED04453F6}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{F7C34DD1-441D-45E4-8198-244CC191444B}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{13EBBE87-19E2-45E0-BC0C-7348CFEBDCD6}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{D0DFDC7C-3364-4FD8-8026-5D268978B422}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{1D22E70F-4E5C-4076-9880-46ECEEBE8FC8}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{8F09F3A6-EA86-4944-A2AB-7B9C9A355E58}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{5FAD7D56-0C83-4D9D-83E9-81D41E30D616}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{2D993ECE-099D-4F73-A407-BBED16E643FC}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{8AA57CAD-4E52-467F-9A7A-4CE056D9D0A8}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{8F08A809-9DDE-4C61-A5D7-1AED1D548CAF}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{C1F61D25-E86A-4FA3-9F08-7F2569892822}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{9F7C82EF-C94B-4D47-A493-BB2F4A8FF892}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{6AD85A67-1597-48EB-BA17-0835C2F4091D}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{29E77F87-47C2-425B-BC1E-4E41E36F8627}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{621EDB81-9449-40C6-9D9F-7F0BAC980695}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{6CA7D342-B25B-44AC-B4BB-B0C8EC5A83FD}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{5FCEA3A6-A0B1-445A-9604-1C243AE20203}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{49DBE9A9-24CA-4171-ADF2-0D1C00122F15}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{A6AF4967-2FCD-494E-A013-D70CBF7E44E9}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{90FC8829-9E60-4E36-AAAC-9703618700C5}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{EC677046-36F6-4AE2-BD9C-70824F96BDF4}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{11BE1539-4B4C-4D44-932F-35E61D342B19}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{D6F993BA-1BDE-42D7-AF64-4ECCBF2DFFC0}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{84E26893-E69A-4565-B9C5-02656E8843FC}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{B6A0771C-A25A-4682-80EE-B211A2DB2877}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{EB50FCBE-1483-4DE5-9EE7-EA473FEF912E}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{DA1476AA-3256-49BA-A1D6-4A7B0D1528D1}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{0295317D-F2FA-4414-B515-AD2F24FF33A3}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{1A53A2CF-A882-4758-8AE3-9A6FB59BDC48}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{C3D03BD4-D809-47ED-9FC1-C43370451B75}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{DBC6A2B1-A1FD-4F26-ACD7-443B244610EA}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{94B1C614-6C58-4009-8E1C-A76B28C244C6}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{F905EED3-BF9C-4967-9400-025421027904}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{FB48A6C2-3136-40D1-97F1-91E9B4D2297B}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{2F1DB0C7-25B0-4829-BEAC-694EAF7DB5C7}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{8FA56DD3-7FE8-4574-8C5E-A3647AFDB0B7}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{86345696-69A4-4DFD-94CF-A005C46ED5BE}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{DF5DCA54-8614-42D3-9972-40E23394AB97}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{42AFAB31-229E-43B5-8E0E-7EA7C8145FDF}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{F42D1CE0-9646-4FA5-906E-28E2515FBDF1}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{829755C2-1EAB-4DE7-9C96-8FF9BEDFDB51}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{56871FBF-26D3-4FC8-BAA0-6B4C0C54EDBC}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{35B80A6D-DF68-4806-A4D2-E0ABAB09ADB1}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{9C60252F-7538-43C5-9693-1DB3C9223DE8}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{4A59C3C9-9037-4D09-A6D8-44706BC50050}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{18278D35-3C55-41DD-8CD8-CC8FF4D28AF4}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{4B3DD627-F4B2-4210-9A6B-5B6EFF9166E2}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{CFABDF80-459A-4522-9555-A4B61E7D169E}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{DE58D8C9-575E-43B9-B6EC-0166705AE992}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{52F0E280-260C-402A-9343-D206D93F183F}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{B7877D36-39D6-491B-92A0-159A2DB4391F}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{19E7FDE2-8D8A-492B-A30A-29D49C875217}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{E8CDF2D7-40DA-450B-A94D-EE87F6B602B5}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{A712C94D-B51B-4A63-BC86-2A7E696849F1}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{9083A9EB-F584-48BF-842C-F9093B6EA8EE}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{9542B408-B3A1-4060-80B0-B8C1AFEFB075}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{5DE532B6-F059-490B-9A60-F45A385BD89C}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{93F569F1-2216-4ADF-BE81-AF9D6EB3C8CD}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{BE12C832-85DB-48AB-A97A-33AC5E6C1B41}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{468E5293-E1AE-4C78-B604-AE3D5C8F4FDC}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{2027C90D-9E83-44B9-AEEA-51B99715029C}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{08B7EA8F-A292-4DC1-AB2B-AD8B0B7ED563}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{0801E577-61F5-4322-81C0-52283833BE7C}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{7E6F965D-25FC-40DD-B528-23CE7BB3225C}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{23A7B6B0-FD17-4204-AF79-BACF55CD37EC}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{62F0563A-C303-4ADD-98CF-6A9E93849AB0}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{1E1E6D52-4224-4638-B685-AA67C444C184}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{993A60A0-F557-48EC-9687-D657E2451A9E}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{0C8956BC-F4B9-47D9-8D81-629FEC9A50C5}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{EF2F6A22-A399-45D5-BFB1-FD175DCA0D76}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{043A11F8-6B2A-4CCD-AB98-A191D2EC2081}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{10DE89DC-AA4C-46D0-8179-2957FF60BF87}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{14D0C9D9-3287-4808-A41D-AD9417966E8B}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{40A360C3-8379-4CFD-816F-8F3AFBF535F6}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{F9438E6C-036B-42A6-9C3E-279115A819CF}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{1F98F75D-86F5-45FE-98DA-0C5CC9EFB464}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{2FDDC2E8-FAA4-4125-82F7-0768677E758B}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{BC018503-9BE8-419C-90C5-609DF45F5CA0}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{712F6F40-F0EE-4B8B-9D73-17E508FC3DE7}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{9579E4D2-EC0F-4E6B-950D-F7E1B8FDFA34}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{CA0C5EC2-5691-4B9F-BBAD-7BA8053601C0}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{0AD99966-9100-4CC0-BA11-8FE0EEEED9A2}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{523559C1-C3CB-402F-BB9E-AC898731A5C3}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{ED756823-73EE-4A98-ACCC-7B3813E59410}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{293FE55D-0652-4B6D-9ECE-43D2EA748B87}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{A70B38B5-22EF-4E6A-89C9-9356D6DF8628}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{0650E85D-E4F5-4A09-8855-B2530AC5505F}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{1ABA477C-411B-4919-BA05-8FBC22912327}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{8F5412E2-309D-449F-A045-E5EEDF079306}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{1B0774B7-E950-4A05-87E7-9665141B8EB7}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{B4342E0C-43CA-4DD3-831A-A665CF307FB6}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{CC5C37D7-8E62-42FA-9ED1-E50A812A3D78}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{1207BE05-EDD9-4D1E-BFB4-6BDCA1AE3061}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{07AA1C89-3E18-4F3A-A944-4B1EB864A13C}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{E29F43C2-880C-4CD1-A23F-5174DC31989A}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{C687F830-2281-4ECD-970D-4817C083EA42}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{D89EAFFC-6FFB-453E-9D5C-EC343995D5BC}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{9F0D3603-1FFD-48B5-BD72-98FD76231C3F}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{8B0EA7C7-7F3A-43D6-BBDA-D203609F8E03}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{094D0E23-8DE3-4F5B-A845-CE894B2C190C}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{4A3E3797-F000-492B-B944-54D2DAA0EF8E}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{2531934D-5DB3-4AAE-A348-DB344463BE70}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{59BC4BA0-FC13-46E2-A0F2-9B59A5071D9B}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{B9A19151-2FF5-4A9C-AC0D-99627DDC1C0C}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{B38AC703-8123-4C0C-9DEF-A1A6157DED86}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{05DA4D5C-3ECA-4A28-8ECE-3A5AF5BAD95C}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{C5F6EF4C-F378-40CD-A95F-3159E9386860}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{4EED0701-92EF-470A-AF64-BB96D66985B9}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{28DFE5E2-7377-4B2C-B852-ED9ECCFCF962}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{DB422F14-A3AB-4BAC-9061-EEC3B1C6316D}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{6C113B7D-D6BB-40E4-BB41-067360AA8FED}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{B26AC87E-B327-4AE1-93AA-610C4C41FA9E}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{1D351CE6-8747-4321-909E-C394E9FCDE4E}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{7A996FB9-774D-4DD2-B0A1-95103F4E5C9A}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{0F1474A8-73AE-4E42-9D34-DCB352489498}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{BCF18171-E7D6-41C1-9B19-18D2B53FAD9D}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{14484FE3-2281-43CD-8982-12090720AD7D}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{3E8F9B6D-E165-4D8B-8884-7DF4F30AA101}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{BDB4A539-912E-452E-A910-F2EE82E3E726}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{7C7F8E26-1FF9-4A98-8D06-EBE326CF2235}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{011A764E-AA6E-4987-AD94-62A30E48A496}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{4A7FE820-B45A-4D73-99C2-56C7B7F142F5}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{1DDC274A-3C3B-4DFC-9282-5349C82ADD5A}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{63C38618-5675-453C-8B09-8B29D38C7607}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{8B90E7E3-7C17-4BB0-BDAD-6C7EF6395F1A}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{D3C4EE39-AB00-4C62-99FA-2829AB751F08}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{DDB78C05-B4A1-40EE-96EF-1407F283F562}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{CE6AFBD3-D635-4CBE-A326-0A13E4700472}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{6346739A-9FF9-4F0F-955A-12B4CB3DBBFC}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{34583C5E-8ECD-4665-A1FD-A1106B81B6E7}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{F4F992DF-03D6-4D4B-9CE9-53D196DC6510}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{C3B2FB6E-7857-41B2-816D-D9A1737E833D}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{4D4464FC-E706-4721-8E7F-29BA2D9AE47A}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{203B41CC-748D-40B3-B973-C2B16D3A10C5}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{717034BA-C22D-4F50-8FEB-9859B5F49654}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{2B7CBBA3-E06C-44A5-BE21-4502AC89BB72}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{8801C22F-3734-4A46-96B5-3E42CCE7F566}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{5DEA421A-532C-45E7-BA1B-9F9F9CDDD7A5}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{479A54FC-4561-4375-85AF-31EE1ED87952}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{1C8A2C06-B01E-4C46-9511-EC4F65982928}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{96701244-0C59-4C75-83AB-ECFEF5BA4EA7}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{35AB17D6-1BFA-4394-AF61-3CCD1BCD0290}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{28F6A7E3-B97C-4BB5-858B-CF0B48C6ECCE}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{2CBC2974-2885-4181-8946-E5F9054DD70A}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{A4EB6401-BDF8-494A-92FC-662AD3556068}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{8791B173-2303-4AFE-97B7-052A3F4169AF}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{ED6F6605-4DB8-4840-81E7-3D825FE263EB}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{25D8F14D-B798-42EE-8EF7-84F2DE0B08D5}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{25BE1692-71BA-469D-AC1E-83D312CE493D}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{63BA06B8-7C55-49CD-B0DA-D6A41401ED42}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{03DEC66F-FE14-4D96-BAB2-7A2334282CE3}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{1EEDD31B-7FC5-4436-8879-12C75FD8BCE5}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{D44F37DC-B149-4095-9A2D-D1835E55965D}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{FF39B625-BBB6-4238-9DED-882C629356EF}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{64ACC90F-BFD4-4615-BB48-859A7C0B9497}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{B1615DA4-EFBF-4E92-8756-3307B2D5D7E0}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{9C03D3C4-96FD-46D7-8881-AABC3223F497}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{AEE91794-6887-498F-9978-976480D5C26C}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{0FF61CA7-1882-4416-A609-C0280557222D}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{F50B6C9F-B30C-47BF-BD7B-CE593411EE80}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{D5163075-A9F7-4704-A4FA-67C42D773F1C}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{D30D6B6A-B44A-43A1-9EF3-66A8ECFDB535}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{C783FD73-C279-4280-92EB-7B412FC12A67}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{17C22BDF-7BFA-427B-B29D-ED7A0B16510E}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{2053240E-8D49-4095-8DFF-34FC1C4438B0}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{86E3BA4E-4C2A-4D4C-86F8-86CFE9771FEB}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{9BFFBD26-A714-4274-89CA-E8DED9A9D5EB}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{F33C485D-C8BC-494B-B5F1-EE7CD956C9DB}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{EFC29630-DA92-4F7B-9176-0F4461074285}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{55F38F44-E417-4E06-AA9A-B861E8E44FEE}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{55F6B4B6-A75D-412F-89ED-1B5426DDF375}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{28DF869F-8096-49E0-8513-D9E9E73D56E3}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{4266EB83-D058-41E5-B55C-99F72661885B}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{D65952A6-7D52-4581-9331-DBE7C14C7B6F}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{D8554081-CB61-4C59-9399-68E5FC8B728D}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{C4FC297C-9EBB-49F0-9847-6DA7145D02E9}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{7C33AA55-0D02-47CF-BA85-593487164BC1}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{1A2287E8-E577-4629-BF0F-1E7BFA8B2DB8}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{400BCF1A-BFBD-4495-B7A8-42CAE99C15FA}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{489203C3-6D9F-48F4-B7F3-98A19651A7D6}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{DF5DDEE5-8B37-48E3-B64B-DF35EE7AD7A9}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{5F809082-7974-4779-B157-FECFD206B20B}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{09FCF315-D3AC-4FEA-B601-E833D27E8883}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{F11036EA-D201-47CF-B291-1DD36D1607AE}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{1E9C5BD8-0F76-4BC1-830F-9851E30D750D}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{7E2CEBF6-B3AB-4640-882B-4D9E0626CE28}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{129E7FF3-3D69-4FC5-B6BE-BC61BD730B54}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{F908F4BB-935A-430A-9A46-23D533E21335}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{2DAEE464-7773-48A8-AF1A-0928A45EBC58}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{3D3F5EFB-D4F2-419E-B1B7-98F5438C71CB}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{4CBEC216-6E97-47F2-B756-DD89EF5731B7}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{53A0301F-18E7-455F-B13B-1D763480D015}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{DACE97CC-16D2-4B89-ACD2-F6B69C914B51}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{C09BC239-845E-49EF-AB41-0FB926286EE5}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{31B31A6E-D053-40DC-AF73-5DFD2C2DFCFC}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{44487C8D-1159-4C29-AD61-1C9B6B1F720E}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{684628D8-90D6-4266-B0C0-0153B3F42251}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{5E475291-5E4F-4704-8033-49BC3043B9AD}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{737644A7-48A3-4101-BDCA-F8F5062CA3D5}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{793F02F3-7F2A-4D8F-8191-01DE3025F45F}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{B53FC823-F3E8-4E14-9D58-7BE31A0552D4}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{514F6F5C-BE5E-4EC1-BC54-B360A837B50D}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{74C69C8B-0E9F-4B12-BE6E-3673CE3D4C84}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{22002BDC-6E5A-4C4D-ADFC-35FA23B0324D}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{96844F1A-77F7-4F4F-A4E3-6D82F82E29B5}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{FA6436D3-7467-4D95-9431-55711F15359C}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{9123BAB4-97A5-4C0D-A2DE-54FAFA2D8353}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{7A131916-0BA3-42BC-B2FB-2045AF11BCC3}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{55302E09-1D5B-4A37-9DED-825692C18830}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{7BBB868E-0650-4B9E-9E30-72DE4F18C6D4}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{BCEE370F-488C-4426-9E99-F5362DA341B8}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{B1669E58-D58F-49B4-9683-D72C3DBEDEC3}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{9D8C1C83-F6B9-4CF4-8B74-D48E6067E123}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{5599E7E9-56E3-4EC6-98B5-D2EFE9F38F37}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{3672F868-145B-4211-AB65-54EE26D05E0F}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{3F875E40-B1E8-432D-9307-8CCC9E243B01}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{730794EC-FB83-4505-9AE4-6262EBECE5A7}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{8EF51B9A-9E17-45E1-82E5-E776FA6CC1E8}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{3B68CF14-6BEC-4085-BB2F-F094A306BD03}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{A5279275-C603-4DA4-8A76-42BE96D57E44}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{BFF19D12-8417-4C64-A32E-10F6D9E93A9F}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{2CD7EA44-6C30-4BA0-BA34-CDA852E911B3}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{1F61CCB4-380C-4835-8A1C-49BBC5E31AB3}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{01500447-7F9C-4985-A94F-719B220A3F4A}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{C455EDD0-71B7-4E30-BEA7-B3931F4E009B}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{63C9A6D1-2B68-4725-A19C-407D3936DC50}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{83C78B4E-7C61-4A77-A525-C4EBAEBE3B19}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{C941FB88-67EE-4E5D-B03F-EE4FE5D8D2C0}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{21DB0908-B262-4D13-8EF3-05545267A308}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{51CAC056-8E5B-4822-9952-F876BEF77D81}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{88782F10-1AB6-4B22-ADCA-56A10CA38702}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{03864DCB-26D1-4019-A61B-7BE1AF299E41}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{F97E85C6-A386-4617-A23C-0B9D4E04772F}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{410AC71A-14A8-4376-9528-C02D5F0C05B4}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{93F37940-9E5F-488B-A9A7-0DABAFBACF64}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{E8E1FDD4-A6FD-4D43-A1A2-E67E5ECF8707}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{0B8F8940-0DCD-4C38-A588-EA605C43606A}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{A9429310-8EAB-4C76-9A0B-5BD234271B38}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{5DB8547A-5F80-4DDF-AB74-017778B7598F}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{270B9C43-0A72-4742-B0D3-B5DFEFFEE86F}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{14A25624-891C-4F61-B681-1DB7E9C760EB}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{0F465907-FC9F-44D3-8C0A-1F0B4AA749B2}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{77E289A2-9C82-4549-BEDC-E92021F07E64}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{83879DFD-6EA2-42FC-8810-861819605CC1}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{4F901AB2-B48C-49BC-9C3C-531282D70A51}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{E2C158EB-FC9D-4AE8-82EB-35092837B0BB}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{7F671D13-134F-4418-8582-6D1E1083DD22}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{A2527153-3366-4B7B-8F8B-5922E3D46A52}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{8F075098-21A7-44EE-8FDD-BA3690C45F29}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{30015F12-2E59-4719-8C96-8C7DDD2B51B9}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{EC91C27B-DE61-4634-9B4C-10412B6A3E11}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{60337F5A-3378-497B-9C54-1FD3EF914D32}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{E68FFAEF-42AF-4BD9-BC9C-41EDE4D08045}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{A0FBBB7C-32A8-483E-86BA-DFB809461A59}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -5755,7 +5773,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG549"/>
+  <dimension ref="A1:AG548"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -19257,8 +19275,8 @@
       <c r="B303" s="14">
         <v>0.625</v>
       </c>
-      <c r="C303" s="14">
-        <v>1.125</v>
+      <c r="C303" s="24">
+        <v>1</v>
       </c>
       <c r="D303" s="15">
         <v>1226223707</v>
@@ -20013,8 +20031,8 @@
       <c r="B319" s="14">
         <v>0.625</v>
       </c>
-      <c r="C319" s="14">
-        <v>1</v>
+      <c r="C319" s="24">
+        <v>1.125</v>
       </c>
       <c r="D319" s="15">
         <v>1121899603</v>
@@ -20495,13 +20513,13 @@
     </row>
     <row r="330" ht="48.75" customHeight="1" spans="1:33">
       <c r="A330" s="6"/>
-      <c r="B330" s="24"/>
-      <c r="C330" s="24"/>
-      <c r="D330" s="25"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
+      <c r="D330" s="26"/>
       <c r="E330" s="16"/>
-      <c r="F330" s="25"/>
-      <c r="G330" s="25"/>
-      <c r="H330" s="25"/>
+      <c r="F330" s="26"/>
+      <c r="G330" s="26"/>
+      <c r="H330" s="26"/>
       <c r="I330" s="20"/>
       <c r="J330" s="19"/>
       <c r="K330" s="18"/>
@@ -20530,25 +20548,25 @@
     </row>
     <row r="331" ht="48.75" customHeight="1" spans="1:33">
       <c r="A331" s="6"/>
-      <c r="B331" s="24">
+      <c r="B331" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C331" s="24">
+      <c r="C331" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D331" s="25">
+      <c r="D331" s="26">
         <v>1556527721</v>
       </c>
       <c r="E331" s="16">
         <v>10282243</v>
       </c>
-      <c r="F331" s="25" t="s">
+      <c r="F331" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="G331" s="25" t="s">
+      <c r="G331" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="H331" s="25" t="s">
+      <c r="H331" s="26" t="s">
         <v>344</v>
       </c>
       <c r="I331" s="20"/>
@@ -20579,13 +20597,13 @@
     </row>
     <row r="332" ht="48.75" customHeight="1" spans="1:33">
       <c r="A332" s="6"/>
-      <c r="B332" s="24"/>
-      <c r="C332" s="24"/>
-      <c r="D332" s="25"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
+      <c r="D332" s="26"/>
       <c r="E332" s="16"/>
-      <c r="F332" s="25"/>
-      <c r="G332" s="25"/>
-      <c r="H332" s="25"/>
+      <c r="F332" s="26"/>
+      <c r="G332" s="26"/>
+      <c r="H332" s="26"/>
       <c r="I332" s="20"/>
       <c r="J332" s="19"/>
       <c r="K332" s="18"/>
@@ -20614,25 +20632,25 @@
     </row>
     <row r="333" ht="48.75" customHeight="1" spans="1:33">
       <c r="A333" s="6"/>
-      <c r="B333" s="24">
+      <c r="B333" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C333" s="24">
+      <c r="C333" s="25">
         <v>1.25</v>
       </c>
-      <c r="D333" s="25" t="s">
+      <c r="D333" s="26" t="s">
         <v>345</v>
       </c>
       <c r="E333" s="16">
         <v>10344169</v>
       </c>
-      <c r="F333" s="25" t="s">
+      <c r="F333" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="G333" s="25" t="s">
+      <c r="G333" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H333" s="25" t="s">
+      <c r="H333" s="26" t="s">
         <v>60</v>
       </c>
       <c r="I333" s="20"/>
@@ -20663,25 +20681,25 @@
     </row>
     <row r="334" ht="48.75" customHeight="1" spans="1:33">
       <c r="A334" s="6"/>
-      <c r="B334" s="24">
+      <c r="B334" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C334" s="24">
+      <c r="C334" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D334" s="25">
+      <c r="D334" s="26">
         <v>1110081480</v>
       </c>
       <c r="E334" s="16">
         <v>10335056</v>
       </c>
-      <c r="F334" s="25" t="s">
+      <c r="F334" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="G334" s="25" t="s">
+      <c r="G334" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H334" s="25" t="s">
+      <c r="H334" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I334" s="20"/>
@@ -20712,13 +20730,13 @@
     </row>
     <row r="335" ht="48.75" customHeight="1" spans="1:33">
       <c r="A335" s="6"/>
-      <c r="B335" s="24"/>
-      <c r="C335" s="24"/>
-      <c r="D335" s="25"/>
+      <c r="B335" s="25"/>
+      <c r="C335" s="25"/>
+      <c r="D335" s="26"/>
       <c r="E335" s="16"/>
-      <c r="F335" s="25"/>
-      <c r="G335" s="25"/>
-      <c r="H335" s="25"/>
+      <c r="F335" s="26"/>
+      <c r="G335" s="26"/>
+      <c r="H335" s="26"/>
       <c r="I335" s="20"/>
       <c r="J335" s="19"/>
       <c r="K335" s="18"/>
@@ -20747,25 +20765,25 @@
     </row>
     <row r="336" ht="48.75" customHeight="1" spans="1:33">
       <c r="A336" s="6"/>
-      <c r="B336" s="24">
+      <c r="B336" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C336" s="24">
+      <c r="C336" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D336" s="25">
+      <c r="D336" s="26">
         <v>1015592867</v>
       </c>
       <c r="E336" s="16">
         <v>10346770</v>
       </c>
-      <c r="F336" s="25" t="s">
+      <c r="F336" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="G336" s="25" t="s">
+      <c r="G336" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H336" s="25" t="s">
+      <c r="H336" s="26" t="s">
         <v>349</v>
       </c>
       <c r="I336" s="20"/>
@@ -20796,13 +20814,13 @@
     </row>
     <row r="337" ht="48.75" customHeight="1" spans="1:33">
       <c r="A337" s="6"/>
-      <c r="B337" s="24"/>
-      <c r="C337" s="24"/>
-      <c r="D337" s="25"/>
+      <c r="B337" s="25"/>
+      <c r="C337" s="25"/>
+      <c r="D337" s="26"/>
       <c r="E337" s="16"/>
-      <c r="F337" s="25"/>
-      <c r="G337" s="25"/>
-      <c r="H337" s="25"/>
+      <c r="F337" s="26"/>
+      <c r="G337" s="26"/>
+      <c r="H337" s="26"/>
       <c r="I337" s="20"/>
       <c r="J337" s="19"/>
       <c r="K337" s="18"/>
@@ -20831,25 +20849,25 @@
     </row>
     <row r="338" ht="48.75" customHeight="1" spans="1:33">
       <c r="A338" s="6"/>
-      <c r="B338" s="24">
+      <c r="B338" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C338" s="24">
+      <c r="C338" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D338" s="25">
+      <c r="D338" s="26">
         <v>1152380728</v>
       </c>
       <c r="E338" s="16">
         <v>10346564</v>
       </c>
-      <c r="F338" s="25" t="s">
+      <c r="F338" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="G338" s="25" t="s">
+      <c r="G338" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H338" s="25" t="s">
+      <c r="H338" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I338" s="20"/>
@@ -20880,25 +20898,25 @@
     </row>
     <row r="339" ht="48.75" customHeight="1" spans="1:33">
       <c r="A339" s="6"/>
-      <c r="B339" s="24">
+      <c r="B339" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C339" s="24">
+      <c r="C339" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D339" s="25">
+      <c r="D339" s="26">
         <v>1148926381</v>
       </c>
       <c r="E339" s="16">
         <v>10331442</v>
       </c>
-      <c r="F339" s="25" t="s">
+      <c r="F339" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="G339" s="25" t="s">
+      <c r="G339" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H339" s="25" t="s">
+      <c r="H339" s="26" t="s">
         <v>31</v>
       </c>
       <c r="I339" s="20"/>
@@ -20929,13 +20947,13 @@
     </row>
     <row r="340" ht="48.75" customHeight="1" spans="1:33">
       <c r="A340" s="6"/>
-      <c r="B340" s="24"/>
-      <c r="C340" s="24"/>
-      <c r="D340" s="25"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="25"/>
+      <c r="D340" s="26"/>
       <c r="E340" s="16"/>
-      <c r="F340" s="25"/>
-      <c r="G340" s="25"/>
-      <c r="H340" s="25"/>
+      <c r="F340" s="26"/>
+      <c r="G340" s="26"/>
+      <c r="H340" s="26"/>
       <c r="I340" s="20"/>
       <c r="J340" s="19"/>
       <c r="K340" s="18"/>
@@ -20964,25 +20982,25 @@
     </row>
     <row r="341" ht="48.75" customHeight="1" spans="1:33">
       <c r="A341" s="6"/>
-      <c r="B341" s="24">
+      <c r="B341" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C341" s="24">
+      <c r="C341" s="25">
         <v>0.166666666666667</v>
       </c>
-      <c r="D341" s="25" t="s">
+      <c r="D341" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E341" s="16">
         <v>10329382</v>
       </c>
-      <c r="F341" s="25" t="s">
+      <c r="F341" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="G341" s="25" t="s">
+      <c r="G341" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H341" s="25" t="s">
+      <c r="H341" s="26" t="s">
         <v>207</v>
       </c>
       <c r="I341" s="20"/>
@@ -21013,13 +21031,13 @@
     </row>
     <row r="342" ht="48.75" customHeight="1" spans="1:33">
       <c r="A342" s="6"/>
-      <c r="B342" s="24"/>
-      <c r="C342" s="24"/>
-      <c r="D342" s="25"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="25"/>
+      <c r="D342" s="26"/>
       <c r="E342" s="16"/>
-      <c r="F342" s="25"/>
-      <c r="G342" s="25"/>
-      <c r="H342" s="25"/>
+      <c r="F342" s="26"/>
+      <c r="G342" s="26"/>
+      <c r="H342" s="26"/>
       <c r="I342" s="20"/>
       <c r="J342" s="19"/>
       <c r="K342" s="18"/>
@@ -21048,25 +21066,25 @@
     </row>
     <row r="343" ht="48.75" customHeight="1" spans="1:33">
       <c r="A343" s="6"/>
-      <c r="B343" s="24">
+      <c r="B343" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C343" s="24">
+      <c r="C343" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D343" s="25">
+      <c r="D343" s="26">
         <v>1127552530</v>
       </c>
       <c r="E343" s="16">
         <v>10314763</v>
       </c>
-      <c r="F343" s="25" t="s">
+      <c r="F343" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="G343" s="25" t="s">
+      <c r="G343" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H343" s="25" t="s">
+      <c r="H343" s="26" t="s">
         <v>162</v>
       </c>
       <c r="I343" s="20"/>
@@ -21097,25 +21115,25 @@
     </row>
     <row r="344" ht="48.75" customHeight="1" spans="1:33">
       <c r="A344" s="6"/>
-      <c r="B344" s="24">
+      <c r="B344" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C344" s="24">
+      <c r="C344" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D344" s="25">
+      <c r="D344" s="26">
         <v>1283104485</v>
       </c>
       <c r="E344" s="16">
         <v>10332548</v>
       </c>
-      <c r="F344" s="25" t="s">
+      <c r="F344" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="G344" s="25" t="s">
+      <c r="G344" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H344" s="25" t="s">
+      <c r="H344" s="26" t="s">
         <v>162</v>
       </c>
       <c r="I344" s="20"/>
@@ -21146,25 +21164,25 @@
     </row>
     <row r="345" ht="48.75" customHeight="1" spans="1:33">
       <c r="A345" s="6"/>
-      <c r="B345" s="24">
+      <c r="B345" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C345" s="24">
+      <c r="C345" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D345" s="25">
+      <c r="D345" s="26">
         <v>1550184789</v>
       </c>
       <c r="E345" s="16">
         <v>10335058</v>
       </c>
-      <c r="F345" s="25" t="s">
+      <c r="F345" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="G345" s="25" t="s">
+      <c r="G345" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H345" s="25" t="s">
+      <c r="H345" s="26" t="s">
         <v>219</v>
       </c>
       <c r="I345" s="20"/>
@@ -21195,13 +21213,13 @@
     </row>
     <row r="346" ht="48.75" customHeight="1" spans="1:33">
       <c r="A346" s="6"/>
-      <c r="B346" s="24"/>
-      <c r="C346" s="24"/>
-      <c r="D346" s="25"/>
+      <c r="B346" s="25"/>
+      <c r="C346" s="25"/>
+      <c r="D346" s="26"/>
       <c r="E346" s="16"/>
-      <c r="F346" s="25"/>
-      <c r="G346" s="25"/>
-      <c r="H346" s="25"/>
+      <c r="F346" s="26"/>
+      <c r="G346" s="26"/>
+      <c r="H346" s="26"/>
       <c r="I346" s="20"/>
       <c r="J346" s="19"/>
       <c r="K346" s="18"/>
@@ -21230,25 +21248,25 @@
     </row>
     <row r="347" ht="48.75" customHeight="1" spans="1:33">
       <c r="A347" s="6"/>
-      <c r="B347" s="24">
+      <c r="B347" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C347" s="24">
+      <c r="C347" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D347" s="25">
+      <c r="D347" s="26">
         <v>1018145481</v>
       </c>
       <c r="E347" s="16">
         <v>10267962</v>
       </c>
-      <c r="F347" s="25" t="s">
+      <c r="F347" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="G347" s="25" t="s">
+      <c r="G347" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H347" s="25" t="s">
+      <c r="H347" s="26" t="s">
         <v>226</v>
       </c>
       <c r="I347" s="20"/>
@@ -21279,25 +21297,25 @@
     </row>
     <row r="348" ht="48.75" customHeight="1" spans="1:33">
       <c r="A348" s="6"/>
-      <c r="B348" s="24">
+      <c r="B348" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C348" s="24">
+      <c r="C348" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D348" s="25">
+      <c r="D348" s="26">
         <v>1144462771</v>
       </c>
       <c r="E348" s="16">
         <v>10344752</v>
       </c>
-      <c r="F348" s="25" t="s">
+      <c r="F348" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="G348" s="25" t="s">
+      <c r="G348" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H348" s="25" t="s">
+      <c r="H348" s="26" t="s">
         <v>131</v>
       </c>
       <c r="I348" s="20"/>
@@ -21328,25 +21346,25 @@
     </row>
     <row r="349" ht="48.75" customHeight="1" spans="1:33">
       <c r="A349" s="6"/>
-      <c r="B349" s="24">
+      <c r="B349" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C349" s="24">
+      <c r="C349" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D349" s="25">
+      <c r="D349" s="26">
         <v>1093443771</v>
       </c>
       <c r="E349" s="16">
         <v>10344757</v>
       </c>
-      <c r="F349" s="25" t="s">
+      <c r="F349" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="G349" s="25" t="s">
+      <c r="G349" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H349" s="25" t="s">
+      <c r="H349" s="26" t="s">
         <v>226</v>
       </c>
       <c r="I349" s="20"/>
@@ -21377,25 +21395,25 @@
     </row>
     <row r="350" ht="48.75" customHeight="1" spans="1:33">
       <c r="A350" s="6"/>
-      <c r="B350" s="24">
+      <c r="B350" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C350" s="24">
+      <c r="C350" s="25">
         <v>1.08333333333333</v>
       </c>
-      <c r="D350" s="25">
+      <c r="D350" s="26">
         <v>1090598043</v>
       </c>
       <c r="E350" s="16">
         <v>10344902</v>
       </c>
-      <c r="F350" s="25" t="s">
+      <c r="F350" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="G350" s="25" t="s">
+      <c r="G350" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H350" s="25" t="s">
+      <c r="H350" s="26" t="s">
         <v>167</v>
       </c>
       <c r="I350" s="20"/>
@@ -21426,13 +21444,13 @@
     </row>
     <row r="351" ht="48.75" customHeight="1" spans="1:33">
       <c r="A351" s="6"/>
-      <c r="B351" s="24"/>
-      <c r="C351" s="24"/>
-      <c r="D351" s="25"/>
+      <c r="B351" s="25"/>
+      <c r="C351" s="25"/>
+      <c r="D351" s="26"/>
       <c r="E351" s="16"/>
-      <c r="F351" s="25"/>
-      <c r="G351" s="25"/>
-      <c r="H351" s="25"/>
+      <c r="F351" s="26"/>
+      <c r="G351" s="26"/>
+      <c r="H351" s="26"/>
       <c r="I351" s="20"/>
       <c r="J351" s="19"/>
       <c r="K351" s="18"/>
@@ -21461,25 +21479,25 @@
     </row>
     <row r="352" ht="48.75" customHeight="1" spans="1:33">
       <c r="A352" s="6"/>
-      <c r="B352" s="24">
+      <c r="B352" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C352" s="24">
+      <c r="C352" s="25">
         <v>0.875</v>
       </c>
-      <c r="D352" s="25">
+      <c r="D352" s="26">
         <v>1149238079</v>
       </c>
       <c r="E352" s="16">
         <v>10341212</v>
       </c>
-      <c r="F352" s="25" t="s">
+      <c r="F352" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="G352" s="25" t="s">
+      <c r="G352" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H352" s="25" t="s">
+      <c r="H352" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I352" s="20"/>
@@ -21510,25 +21528,25 @@
     </row>
     <row r="353" ht="48.75" customHeight="1" spans="1:33">
       <c r="A353" s="6"/>
-      <c r="B353" s="24">
+      <c r="B353" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C353" s="24">
+      <c r="C353" s="25">
         <v>1.08333333333333</v>
       </c>
-      <c r="D353" s="25">
+      <c r="D353" s="26">
         <v>0</v>
       </c>
       <c r="E353" s="16">
         <v>10337109</v>
       </c>
-      <c r="F353" s="25" t="s">
+      <c r="F353" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="G353" s="25" t="s">
+      <c r="G353" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H353" s="25" t="s">
+      <c r="H353" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I353" s="20"/>
@@ -21559,25 +21577,25 @@
     </row>
     <row r="354" ht="48.75" customHeight="1" spans="1:33">
       <c r="A354" s="6"/>
-      <c r="B354" s="24">
+      <c r="B354" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C354" s="24">
+      <c r="C354" s="25">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D354" s="25">
+      <c r="D354" s="26">
         <v>1153235087</v>
       </c>
       <c r="E354" s="16">
         <v>10341020</v>
       </c>
-      <c r="F354" s="25" t="s">
+      <c r="F354" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="G354" s="25" t="s">
+      <c r="G354" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H354" s="25" t="s">
+      <c r="H354" s="26" t="s">
         <v>229</v>
       </c>
       <c r="I354" s="20"/>
@@ -21608,25 +21626,25 @@
     </row>
     <row r="355" ht="48.75" customHeight="1" spans="1:33">
       <c r="A355" s="6"/>
-      <c r="B355" s="24">
+      <c r="B355" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C355" s="24">
+      <c r="C355" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D355" s="25">
+      <c r="D355" s="26">
         <v>1080445221</v>
       </c>
       <c r="E355" s="16">
         <v>10342331</v>
       </c>
-      <c r="F355" s="25" t="s">
+      <c r="F355" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="G355" s="25" t="s">
+      <c r="G355" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H355" s="25" t="s">
+      <c r="H355" s="26" t="s">
         <v>333</v>
       </c>
       <c r="I355" s="20"/>
@@ -21657,25 +21675,25 @@
     </row>
     <row r="356" ht="48.75" customHeight="1" spans="1:33">
       <c r="A356" s="6"/>
-      <c r="B356" s="24">
+      <c r="B356" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C356" s="24">
+      <c r="C356" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D356" s="25">
+      <c r="D356" s="26">
         <v>1153210480</v>
       </c>
       <c r="E356" s="16">
         <v>10344865</v>
       </c>
-      <c r="F356" s="25" t="s">
+      <c r="F356" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="G356" s="25" t="s">
+      <c r="G356" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H356" s="25" t="s">
+      <c r="H356" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I356" s="20"/>
@@ -21706,25 +21724,25 @@
     </row>
     <row r="357" ht="48.75" customHeight="1" spans="1:33">
       <c r="A357" s="6"/>
-      <c r="B357" s="24">
+      <c r="B357" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C357" s="24">
+      <c r="C357" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D357" s="25">
+      <c r="D357" s="26">
         <v>1099361043</v>
       </c>
       <c r="E357" s="16">
         <v>10344884</v>
       </c>
-      <c r="F357" s="25" t="s">
+      <c r="F357" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="G357" s="25" t="s">
+      <c r="G357" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H357" s="25" t="s">
+      <c r="H357" s="26" t="s">
         <v>16</v>
       </c>
       <c r="I357" s="20"/>
@@ -21755,25 +21773,25 @@
     </row>
     <row r="358" ht="48.75" customHeight="1" spans="1:33">
       <c r="A358" s="6"/>
-      <c r="B358" s="24">
+      <c r="B358" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C358" s="24">
+      <c r="C358" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D358" s="25">
+      <c r="D358" s="26">
         <v>1116231956</v>
       </c>
       <c r="E358" s="16">
         <v>10344885</v>
       </c>
-      <c r="F358" s="25" t="s">
+      <c r="F358" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="G358" s="25" t="s">
+      <c r="G358" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H358" s="25" t="s">
+      <c r="H358" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I358" s="20"/>
@@ -21804,25 +21822,25 @@
     </row>
     <row r="359" ht="48.75" customHeight="1" spans="1:33">
       <c r="A359" s="6"/>
-      <c r="B359" s="24">
+      <c r="B359" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C359" s="24">
+      <c r="C359" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D359" s="25">
+      <c r="D359" s="26">
         <v>1143585920</v>
       </c>
       <c r="E359" s="16">
         <v>10346011</v>
       </c>
-      <c r="F359" s="25" t="s">
+      <c r="F359" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="G359" s="25" t="s">
+      <c r="G359" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H359" s="25" t="s">
+      <c r="H359" s="26" t="s">
         <v>229</v>
       </c>
       <c r="I359" s="20"/>
@@ -21853,25 +21871,25 @@
     </row>
     <row r="360" ht="48.75" customHeight="1" spans="1:33">
       <c r="A360" s="6"/>
-      <c r="B360" s="24">
+      <c r="B360" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C360" s="24">
+      <c r="C360" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D360" s="25">
+      <c r="D360" s="26">
         <v>1123321087</v>
       </c>
       <c r="E360" s="16">
         <v>10342330</v>
       </c>
-      <c r="F360" s="25" t="s">
+      <c r="F360" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="G360" s="25" t="s">
+      <c r="G360" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H360" s="25" t="s">
+      <c r="H360" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I360" s="20"/>
@@ -21902,25 +21920,25 @@
     </row>
     <row r="361" ht="48.75" customHeight="1" spans="1:33">
       <c r="A361" s="6"/>
-      <c r="B361" s="24">
+      <c r="B361" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C361" s="24">
+      <c r="C361" s="25">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D361" s="25" t="s">
+      <c r="D361" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E361" s="16">
         <v>10340379</v>
       </c>
-      <c r="F361" s="25" t="s">
+      <c r="F361" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="G361" s="25" t="s">
+      <c r="G361" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H361" s="25" t="s">
+      <c r="H361" s="26" t="s">
         <v>333</v>
       </c>
       <c r="I361" s="20"/>
@@ -21951,13 +21969,13 @@
     </row>
     <row r="362" ht="48.75" customHeight="1" spans="1:33">
       <c r="A362" s="6"/>
-      <c r="B362" s="24"/>
-      <c r="C362" s="24"/>
-      <c r="D362" s="25"/>
+      <c r="B362" s="25"/>
+      <c r="C362" s="25"/>
+      <c r="D362" s="26"/>
       <c r="E362" s="16"/>
-      <c r="F362" s="25"/>
-      <c r="G362" s="25"/>
-      <c r="H362" s="25"/>
+      <c r="F362" s="26"/>
+      <c r="G362" s="26"/>
+      <c r="H362" s="26"/>
       <c r="I362" s="20"/>
       <c r="J362" s="19"/>
       <c r="K362" s="18"/>
@@ -21986,25 +22004,25 @@
     </row>
     <row r="363" ht="48.75" customHeight="1" spans="1:33">
       <c r="A363" s="6"/>
-      <c r="B363" s="24">
+      <c r="B363" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C363" s="24">
+      <c r="C363" s="25">
         <v>0.291666666666667</v>
       </c>
-      <c r="D363" s="25">
+      <c r="D363" s="26">
         <v>1065421169</v>
       </c>
       <c r="E363" s="16">
         <v>10331020</v>
       </c>
-      <c r="F363" s="25" t="s">
+      <c r="F363" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="G363" s="25" t="s">
+      <c r="G363" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H363" s="25" t="s">
+      <c r="H363" s="26" t="s">
         <v>138</v>
       </c>
       <c r="I363" s="20"/>
@@ -22035,25 +22053,25 @@
     </row>
     <row r="364" ht="48.75" customHeight="1" spans="1:33">
       <c r="A364" s="6"/>
-      <c r="B364" s="24">
+      <c r="B364" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C364" s="24">
+      <c r="C364" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D364" s="25">
+      <c r="D364" s="26">
         <v>1070390659</v>
       </c>
       <c r="E364" s="16">
         <v>10344855</v>
       </c>
-      <c r="F364" s="25" t="s">
+      <c r="F364" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="G364" s="25" t="s">
+      <c r="G364" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H364" s="25" t="s">
+      <c r="H364" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I364" s="20"/>
@@ -22084,25 +22102,25 @@
     </row>
     <row r="365" ht="48.75" customHeight="1" spans="1:33">
       <c r="A365" s="6"/>
-      <c r="B365" s="24">
+      <c r="B365" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C365" s="24">
+      <c r="C365" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D365" s="25">
+      <c r="D365" s="26">
         <v>1553989783</v>
       </c>
       <c r="E365" s="16">
         <v>10335120</v>
       </c>
-      <c r="F365" s="25" t="s">
+      <c r="F365" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="G365" s="25" t="s">
+      <c r="G365" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H365" s="25" t="s">
+      <c r="H365" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I365" s="20"/>
@@ -22133,25 +22151,25 @@
     </row>
     <row r="366" ht="48.75" customHeight="1" spans="1:33">
       <c r="A366" s="6"/>
-      <c r="B366" s="24">
+      <c r="B366" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C366" s="24">
+      <c r="C366" s="25">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D366" s="25">
+      <c r="D366" s="26">
         <v>1016789685</v>
       </c>
       <c r="E366" s="16">
         <v>10335024</v>
       </c>
-      <c r="F366" s="25" t="s">
+      <c r="F366" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="G366" s="25" t="s">
+      <c r="G366" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H366" s="25" t="s">
+      <c r="H366" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I366" s="20"/>
@@ -22182,13 +22200,13 @@
     </row>
     <row r="367" ht="48.75" customHeight="1" spans="1:33">
       <c r="A367" s="6"/>
-      <c r="B367" s="24"/>
-      <c r="C367" s="24"/>
-      <c r="D367" s="25"/>
+      <c r="B367" s="25"/>
+      <c r="C367" s="25"/>
+      <c r="D367" s="26"/>
       <c r="E367" s="16"/>
-      <c r="F367" s="25"/>
-      <c r="G367" s="25"/>
-      <c r="H367" s="25"/>
+      <c r="F367" s="26"/>
+      <c r="G367" s="26"/>
+      <c r="H367" s="26"/>
       <c r="I367" s="20"/>
       <c r="J367" s="19"/>
       <c r="K367" s="18"/>
@@ -22217,25 +22235,25 @@
     </row>
     <row r="368" ht="48.75" customHeight="1" spans="1:33">
       <c r="A368" s="6"/>
-      <c r="B368" s="24">
+      <c r="B368" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C368" s="24">
+      <c r="C368" s="25">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D368" s="25">
+      <c r="D368" s="26">
         <v>1557628989</v>
       </c>
       <c r="E368" s="16">
         <v>10342327</v>
       </c>
-      <c r="F368" s="25" t="s">
+      <c r="F368" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="G368" s="25" t="s">
+      <c r="G368" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="H368" s="25" t="s">
+      <c r="H368" s="26" t="s">
         <v>50</v>
       </c>
       <c r="I368" s="20"/>
@@ -22266,13 +22284,13 @@
     </row>
     <row r="369" ht="48.75" customHeight="1" spans="1:33">
       <c r="A369" s="6"/>
-      <c r="B369" s="24"/>
-      <c r="C369" s="24"/>
-      <c r="D369" s="25"/>
+      <c r="B369" s="25"/>
+      <c r="C369" s="25"/>
+      <c r="D369" s="26"/>
       <c r="E369" s="16"/>
-      <c r="F369" s="25"/>
-      <c r="G369" s="25"/>
-      <c r="H369" s="25"/>
+      <c r="F369" s="26"/>
+      <c r="G369" s="26"/>
+      <c r="H369" s="26"/>
       <c r="I369" s="20"/>
       <c r="J369" s="19"/>
       <c r="K369" s="18"/>
@@ -22301,25 +22319,25 @@
     </row>
     <row r="370" ht="48.75" customHeight="1" spans="1:33">
       <c r="A370" s="6"/>
-      <c r="B370" s="24">
+      <c r="B370" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C370" s="24">
+      <c r="C370" s="25">
         <v>1.04166666666667</v>
       </c>
-      <c r="D370" s="25">
+      <c r="D370" s="26">
         <v>1026876551</v>
       </c>
       <c r="E370" s="16">
         <v>10345744</v>
       </c>
-      <c r="F370" s="25" t="s">
+      <c r="F370" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="G370" s="25" t="s">
+      <c r="G370" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="H370" s="25" t="s">
+      <c r="H370" s="26" t="s">
         <v>176</v>
       </c>
       <c r="I370" s="20"/>
@@ -22350,13 +22368,13 @@
     </row>
     <row r="371" ht="48.75" customHeight="1" spans="1:33">
       <c r="A371" s="6"/>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
-      <c r="D371" s="25"/>
+      <c r="B371" s="25"/>
+      <c r="C371" s="25"/>
+      <c r="D371" s="26"/>
       <c r="E371" s="16"/>
-      <c r="F371" s="25"/>
-      <c r="G371" s="25"/>
-      <c r="H371" s="25"/>
+      <c r="F371" s="26"/>
+      <c r="G371" s="26"/>
+      <c r="H371" s="26"/>
       <c r="I371" s="20"/>
       <c r="J371" s="19"/>
       <c r="K371" s="18"/>
@@ -22977,13 +22995,13 @@
     </row>
     <row r="386" ht="43.5" customHeight="1" spans="1:33">
       <c r="A386" s="6"/>
-      <c r="B386" s="24"/>
-      <c r="C386" s="24"/>
-      <c r="D386" s="25"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="25"/>
+      <c r="D386" s="26"/>
       <c r="E386" s="16"/>
-      <c r="F386" s="25"/>
-      <c r="G386" s="25"/>
-      <c r="H386" s="25"/>
+      <c r="F386" s="26"/>
+      <c r="G386" s="26"/>
+      <c r="H386" s="26"/>
       <c r="I386" s="20"/>
       <c r="J386" s="19"/>
       <c r="K386" s="18"/>
@@ -23012,25 +23030,25 @@
     </row>
     <row r="387" ht="43.5" customHeight="1" spans="1:33">
       <c r="A387" s="6"/>
-      <c r="B387" s="24">
+      <c r="B387" s="25">
         <v>0.75</v>
       </c>
-      <c r="C387" s="24">
+      <c r="C387" s="25">
         <v>0.125</v>
       </c>
-      <c r="D387" s="25">
+      <c r="D387" s="26">
         <v>1121378981</v>
       </c>
       <c r="E387" s="16">
         <v>10308019</v>
       </c>
-      <c r="F387" s="25" t="s">
+      <c r="F387" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="G387" s="25" t="s">
+      <c r="G387" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H387" s="25" t="s">
+      <c r="H387" s="26" t="s">
         <v>60</v>
       </c>
       <c r="I387" s="20"/>
@@ -23061,13 +23079,13 @@
     </row>
     <row r="388" ht="43.5" customHeight="1" spans="1:33">
       <c r="A388" s="6"/>
-      <c r="B388" s="24"/>
-      <c r="C388" s="24"/>
-      <c r="D388" s="25"/>
+      <c r="B388" s="25"/>
+      <c r="C388" s="25"/>
+      <c r="D388" s="26"/>
       <c r="E388" s="16"/>
-      <c r="F388" s="25"/>
-      <c r="G388" s="25"/>
-      <c r="H388" s="25"/>
+      <c r="F388" s="26"/>
+      <c r="G388" s="26"/>
+      <c r="H388" s="26"/>
       <c r="I388" s="20"/>
       <c r="J388" s="19"/>
       <c r="K388" s="18"/>
@@ -23096,25 +23114,25 @@
     </row>
     <row r="389" ht="43.5" customHeight="1" spans="1:33">
       <c r="A389" s="6"/>
-      <c r="B389" s="24">
+      <c r="B389" s="25">
         <v>0.75</v>
       </c>
-      <c r="C389" s="24">
+      <c r="C389" s="25">
         <v>0.125</v>
       </c>
-      <c r="D389" s="25">
+      <c r="D389" s="26">
         <v>1277779066</v>
       </c>
       <c r="E389" s="16">
         <v>10282876</v>
       </c>
-      <c r="F389" s="25" t="s">
+      <c r="F389" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="G389" s="25" t="s">
+      <c r="G389" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="H389" s="25" t="s">
+      <c r="H389" s="26" t="s">
         <v>391</v>
       </c>
       <c r="I389" s="20"/>
@@ -23145,13 +23163,13 @@
     </row>
     <row r="390" ht="43.5" customHeight="1" spans="1:33">
       <c r="A390" s="6"/>
-      <c r="B390" s="24"/>
-      <c r="C390" s="24"/>
-      <c r="D390" s="25"/>
+      <c r="B390" s="25"/>
+      <c r="C390" s="25"/>
+      <c r="D390" s="26"/>
       <c r="E390" s="16"/>
-      <c r="F390" s="25"/>
-      <c r="G390" s="25"/>
-      <c r="H390" s="25"/>
+      <c r="F390" s="26"/>
+      <c r="G390" s="26"/>
+      <c r="H390" s="26"/>
       <c r="I390" s="20"/>
       <c r="J390" s="19"/>
       <c r="K390" s="18"/>
@@ -23180,25 +23198,25 @@
     </row>
     <row r="391" ht="43.5" customHeight="1" spans="1:33">
       <c r="A391" s="6"/>
-      <c r="B391" s="24">
+      <c r="B391" s="25">
         <v>0.75</v>
       </c>
-      <c r="C391" s="24">
+      <c r="C391" s="25">
         <v>1.20833333333333</v>
       </c>
-      <c r="D391" s="25">
+      <c r="D391" s="26">
         <v>1070874137</v>
       </c>
       <c r="E391" s="16">
         <v>10334215</v>
       </c>
-      <c r="F391" s="25" t="s">
+      <c r="F391" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="G391" s="25" t="s">
+      <c r="G391" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H391" s="25" t="s">
+      <c r="H391" s="26" t="s">
         <v>393</v>
       </c>
       <c r="I391" s="20"/>
@@ -23229,13 +23247,13 @@
     </row>
     <row r="392" ht="43.5" customHeight="1" spans="1:33">
       <c r="A392" s="6"/>
-      <c r="B392" s="24"/>
-      <c r="C392" s="24"/>
-      <c r="D392" s="25"/>
+      <c r="B392" s="25"/>
+      <c r="C392" s="25"/>
+      <c r="D392" s="26"/>
       <c r="E392" s="16"/>
-      <c r="F392" s="25"/>
-      <c r="G392" s="25"/>
-      <c r="H392" s="25"/>
+      <c r="F392" s="26"/>
+      <c r="G392" s="26"/>
+      <c r="H392" s="26"/>
       <c r="I392" s="20"/>
       <c r="J392" s="19"/>
       <c r="K392" s="18"/>
@@ -23264,25 +23282,25 @@
     </row>
     <row r="393" ht="43.5" customHeight="1" spans="1:33">
       <c r="A393" s="6"/>
-      <c r="B393" s="24">
+      <c r="B393" s="25">
         <v>0.75</v>
       </c>
-      <c r="C393" s="24">
+      <c r="C393" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="D393" s="25" t="s">
+      <c r="D393" s="26" t="s">
         <v>394</v>
       </c>
       <c r="E393" s="16">
         <v>10340369</v>
       </c>
-      <c r="F393" s="25" t="s">
+      <c r="F393" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="G393" s="25" t="s">
+      <c r="G393" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H393" s="25" t="s">
+      <c r="H393" s="26" t="s">
         <v>95</v>
       </c>
       <c r="I393" s="20"/>
@@ -23313,25 +23331,25 @@
     </row>
     <row r="394" ht="43.5" customHeight="1" spans="1:33">
       <c r="A394" s="6"/>
-      <c r="B394" s="24">
+      <c r="B394" s="25">
         <v>0.75</v>
       </c>
-      <c r="C394" s="24">
+      <c r="C394" s="25">
         <v>1.29166666666667</v>
       </c>
-      <c r="D394" s="25">
+      <c r="D394" s="26">
         <v>1095617866</v>
       </c>
       <c r="E394" s="16">
         <v>10344856</v>
       </c>
-      <c r="F394" s="25" t="s">
+      <c r="F394" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="G394" s="25" t="s">
+      <c r="G394" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H394" s="25" t="s">
+      <c r="H394" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I394" s="20"/>
@@ -23362,25 +23380,25 @@
     </row>
     <row r="395" ht="43.5" customHeight="1" spans="1:33">
       <c r="A395" s="6"/>
-      <c r="B395" s="24">
+      <c r="B395" s="25">
         <v>0.75</v>
       </c>
-      <c r="C395" s="24">
+      <c r="C395" s="25">
         <v>1</v>
       </c>
-      <c r="D395" s="25">
+      <c r="D395" s="26">
         <v>1124069931</v>
       </c>
       <c r="E395" s="16">
         <v>10346573</v>
       </c>
-      <c r="F395" s="25" t="s">
+      <c r="F395" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G395" s="25" t="s">
+      <c r="G395" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H395" s="25" t="s">
+      <c r="H395" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I395" s="20"/>
@@ -23411,13 +23429,13 @@
     </row>
     <row r="396" ht="43.5" customHeight="1" spans="1:33">
       <c r="A396" s="6"/>
-      <c r="B396" s="24"/>
-      <c r="C396" s="24"/>
-      <c r="D396" s="25"/>
+      <c r="B396" s="25"/>
+      <c r="C396" s="25"/>
+      <c r="D396" s="26"/>
       <c r="E396" s="16"/>
-      <c r="F396" s="25"/>
-      <c r="G396" s="25"/>
-      <c r="H396" s="25"/>
+      <c r="F396" s="26"/>
+      <c r="G396" s="26"/>
+      <c r="H396" s="26"/>
       <c r="I396" s="20"/>
       <c r="J396" s="19"/>
       <c r="K396" s="18"/>
@@ -23446,25 +23464,25 @@
     </row>
     <row r="397" ht="43.5" customHeight="1" spans="1:33">
       <c r="A397" s="6"/>
-      <c r="B397" s="24">
+      <c r="B397" s="25">
         <v>0.75</v>
       </c>
-      <c r="C397" s="24">
+      <c r="C397" s="25">
         <v>1.25</v>
       </c>
-      <c r="D397" s="25">
+      <c r="D397" s="26">
         <v>1148646797</v>
       </c>
       <c r="E397" s="16">
         <v>10338474</v>
       </c>
-      <c r="F397" s="25" t="s">
+      <c r="F397" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="G397" s="25" t="s">
+      <c r="G397" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H397" s="25" t="s">
+      <c r="H397" s="26" t="s">
         <v>127</v>
       </c>
       <c r="I397" s="20"/>
@@ -23495,25 +23513,25 @@
     </row>
     <row r="398" ht="43.5" customHeight="1" spans="1:33">
       <c r="A398" s="6"/>
-      <c r="B398" s="24">
+      <c r="B398" s="25">
         <v>0.75</v>
       </c>
-      <c r="C398" s="24">
+      <c r="C398" s="25">
         <v>1.25</v>
       </c>
-      <c r="D398" s="25">
+      <c r="D398" s="26">
         <v>1044822349</v>
       </c>
       <c r="E398" s="16">
         <v>10341595</v>
       </c>
-      <c r="F398" s="25" t="s">
+      <c r="F398" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="G398" s="25" t="s">
+      <c r="G398" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H398" s="25" t="s">
+      <c r="H398" s="26" t="s">
         <v>167</v>
       </c>
       <c r="I398" s="20"/>
@@ -23544,25 +23562,25 @@
     </row>
     <row r="399" ht="43.5" customHeight="1" spans="1:33">
       <c r="A399" s="6"/>
-      <c r="B399" s="24">
+      <c r="B399" s="25">
         <v>0.75</v>
       </c>
-      <c r="C399" s="24">
+      <c r="C399" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D399" s="25">
+      <c r="D399" s="26">
         <v>1004911039</v>
       </c>
       <c r="E399" s="16">
         <v>10344279</v>
       </c>
-      <c r="F399" s="25" t="s">
+      <c r="F399" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="G399" s="25" t="s">
+      <c r="G399" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H399" s="25" t="s">
+      <c r="H399" s="26" t="s">
         <v>125</v>
       </c>
       <c r="I399" s="20"/>
@@ -23593,25 +23611,25 @@
     </row>
     <row r="400" ht="43.5" customHeight="1" spans="1:33">
       <c r="A400" s="6"/>
-      <c r="B400" s="24">
+      <c r="B400" s="25">
         <v>0.75</v>
       </c>
-      <c r="C400" s="24">
+      <c r="C400" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="D400" s="25">
+      <c r="D400" s="26">
         <v>11567115272</v>
       </c>
       <c r="E400" s="16">
         <v>10348227</v>
       </c>
-      <c r="F400" s="25" t="s">
+      <c r="F400" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="G400" s="25" t="s">
+      <c r="G400" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H400" s="25" t="s">
+      <c r="H400" s="26" t="s">
         <v>131</v>
       </c>
       <c r="I400" s="20"/>
@@ -23642,25 +23660,25 @@
     </row>
     <row r="401" ht="43.5" customHeight="1" spans="1:33">
       <c r="A401" s="6"/>
-      <c r="B401" s="24">
+      <c r="B401" s="25">
         <v>0.75</v>
       </c>
-      <c r="C401" s="24">
+      <c r="C401" s="25">
         <v>0.208333333333333</v>
       </c>
-      <c r="D401" s="25">
+      <c r="D401" s="26">
         <v>1050915746</v>
       </c>
       <c r="E401" s="16">
         <v>10341047</v>
       </c>
-      <c r="F401" s="25" t="s">
+      <c r="F401" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="G401" s="25" t="s">
+      <c r="G401" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H401" s="25" t="s">
+      <c r="H401" s="26" t="s">
         <v>127</v>
       </c>
       <c r="I401" s="20"/>
@@ -23691,25 +23709,25 @@
     </row>
     <row r="402" ht="43.5" customHeight="1" spans="1:33">
       <c r="A402" s="6"/>
-      <c r="B402" s="24">
+      <c r="B402" s="25">
         <v>0.75</v>
       </c>
-      <c r="C402" s="24">
+      <c r="C402" s="25">
         <v>0.125</v>
       </c>
-      <c r="D402" s="25">
+      <c r="D402" s="26">
         <v>1156255534</v>
       </c>
       <c r="E402" s="16">
         <v>10316245</v>
       </c>
-      <c r="F402" s="25" t="s">
+      <c r="F402" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="G402" s="25" t="s">
+      <c r="G402" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H402" s="25" t="s">
+      <c r="H402" s="26" t="s">
         <v>167</v>
       </c>
       <c r="I402" s="20"/>
@@ -23740,13 +23758,13 @@
     </row>
     <row r="403" ht="43.5" customHeight="1" spans="1:33">
       <c r="A403" s="6"/>
-      <c r="B403" s="24"/>
-      <c r="C403" s="24"/>
-      <c r="D403" s="25"/>
+      <c r="B403" s="25"/>
+      <c r="C403" s="25"/>
+      <c r="D403" s="26"/>
       <c r="E403" s="16"/>
-      <c r="F403" s="25"/>
-      <c r="G403" s="25"/>
-      <c r="H403" s="25"/>
+      <c r="F403" s="26"/>
+      <c r="G403" s="26"/>
+      <c r="H403" s="26"/>
       <c r="I403" s="20"/>
       <c r="J403" s="19"/>
       <c r="K403" s="18"/>
@@ -23775,25 +23793,25 @@
     </row>
     <row r="404" ht="43.5" customHeight="1" spans="1:33">
       <c r="A404" s="6"/>
-      <c r="B404" s="24">
+      <c r="B404" s="25">
         <v>0.75</v>
       </c>
-      <c r="C404" s="24">
+      <c r="C404" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D404" s="25">
+      <c r="D404" s="26">
         <v>1555073993</v>
       </c>
       <c r="E404" s="16">
         <v>10339759</v>
       </c>
-      <c r="F404" s="25" t="s">
+      <c r="F404" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="G404" s="25" t="s">
+      <c r="G404" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H404" s="25" t="s">
+      <c r="H404" s="26" t="s">
         <v>318</v>
       </c>
       <c r="I404" s="20"/>
@@ -23824,13 +23842,13 @@
     </row>
     <row r="405" ht="43.5" customHeight="1" spans="1:33">
       <c r="A405" s="6"/>
-      <c r="B405" s="24"/>
-      <c r="C405" s="24"/>
-      <c r="D405" s="25"/>
+      <c r="B405" s="25"/>
+      <c r="C405" s="25"/>
+      <c r="D405" s="26"/>
       <c r="E405" s="16"/>
-      <c r="F405" s="25"/>
-      <c r="G405" s="25"/>
-      <c r="H405" s="25"/>
+      <c r="F405" s="26"/>
+      <c r="G405" s="26"/>
+      <c r="H405" s="26"/>
       <c r="I405" s="20"/>
       <c r="J405" s="19"/>
       <c r="K405" s="18"/>
@@ -23859,25 +23877,25 @@
     </row>
     <row r="406" ht="43.5" customHeight="1" spans="1:33">
       <c r="A406" s="6"/>
-      <c r="B406" s="24">
+      <c r="B406" s="25">
         <v>0.75</v>
       </c>
-      <c r="C406" s="24">
+      <c r="C406" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D406" s="25">
+      <c r="D406" s="26">
         <v>1026041099</v>
       </c>
       <c r="E406" s="16">
         <v>10344170</v>
       </c>
-      <c r="F406" s="25" t="s">
+      <c r="F406" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="G406" s="25" t="s">
+      <c r="G406" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H406" s="25" t="s">
+      <c r="H406" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I406" s="20"/>
@@ -23908,25 +23926,25 @@
     </row>
     <row r="407" ht="43.5" customHeight="1" spans="1:33">
       <c r="A407" s="6"/>
-      <c r="B407" s="24">
+      <c r="B407" s="25">
         <v>0.75</v>
       </c>
-      <c r="C407" s="24">
+      <c r="C407" s="25">
         <v>1.125</v>
       </c>
-      <c r="D407" s="25">
+      <c r="D407" s="26">
         <v>1145149773</v>
       </c>
       <c r="E407" s="16">
         <v>10344235</v>
       </c>
-      <c r="F407" s="25" t="s">
+      <c r="F407" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="G407" s="25" t="s">
+      <c r="G407" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H407" s="25" t="s">
+      <c r="H407" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I407" s="20"/>
@@ -23957,25 +23975,25 @@
     </row>
     <row r="408" ht="43.5" customHeight="1" spans="1:33">
       <c r="A408" s="6"/>
-      <c r="B408" s="24">
+      <c r="B408" s="25">
         <v>0.75</v>
       </c>
-      <c r="C408" s="24">
+      <c r="C408" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D408" s="25">
+      <c r="D408" s="26">
         <v>1551584488</v>
       </c>
       <c r="E408" s="16">
         <v>10344250</v>
       </c>
-      <c r="F408" s="25" t="s">
+      <c r="F408" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="G408" s="25" t="s">
+      <c r="G408" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H408" s="25" t="s">
+      <c r="H408" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I408" s="20"/>
@@ -24006,25 +24024,25 @@
     </row>
     <row r="409" ht="43.5" customHeight="1" spans="1:33">
       <c r="A409" s="6"/>
-      <c r="B409" s="24">
+      <c r="B409" s="25">
         <v>0.75</v>
       </c>
-      <c r="C409" s="24">
+      <c r="C409" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D409" s="25" t="s">
+      <c r="D409" s="26" t="s">
         <v>407</v>
       </c>
       <c r="E409" s="16">
         <v>10348012</v>
       </c>
-      <c r="F409" s="25" t="s">
+      <c r="F409" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="G409" s="25" t="s">
+      <c r="G409" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H409" s="25" t="s">
+      <c r="H409" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I409" s="20"/>
@@ -24055,25 +24073,25 @@
     </row>
     <row r="410" ht="43.5" customHeight="1" spans="1:33">
       <c r="A410" s="6"/>
-      <c r="B410" s="24">
+      <c r="B410" s="25">
         <v>0.75</v>
       </c>
-      <c r="C410" s="24">
+      <c r="C410" s="25">
         <v>0.166666666666667</v>
       </c>
-      <c r="D410" s="25">
+      <c r="D410" s="26">
         <v>0</v>
       </c>
       <c r="E410" s="16">
         <v>10341599</v>
       </c>
-      <c r="F410" s="25" t="s">
+      <c r="F410" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="G410" s="25" t="s">
+      <c r="G410" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H410" s="25" t="s">
+      <c r="H410" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I410" s="20"/>
@@ -24104,13 +24122,13 @@
     </row>
     <row r="411" ht="43.5" customHeight="1" spans="1:33">
       <c r="A411" s="6"/>
-      <c r="B411" s="24"/>
-      <c r="C411" s="24"/>
-      <c r="D411" s="25"/>
+      <c r="B411" s="25"/>
+      <c r="C411" s="25"/>
+      <c r="D411" s="26"/>
       <c r="E411" s="16"/>
-      <c r="F411" s="25"/>
-      <c r="G411" s="25"/>
-      <c r="H411" s="25"/>
+      <c r="F411" s="26"/>
+      <c r="G411" s="26"/>
+      <c r="H411" s="26"/>
       <c r="I411" s="20"/>
       <c r="J411" s="19"/>
       <c r="K411" s="18"/>
@@ -24139,25 +24157,25 @@
     </row>
     <row r="412" ht="43.5" customHeight="1" spans="1:33">
       <c r="A412" s="6"/>
-      <c r="B412" s="24">
+      <c r="B412" s="25">
         <v>0.75</v>
       </c>
-      <c r="C412" s="24">
+      <c r="C412" s="25">
         <v>1.25</v>
       </c>
-      <c r="D412" s="25">
+      <c r="D412" s="26">
         <v>1123084929</v>
       </c>
       <c r="E412" s="16">
         <v>10331204</v>
       </c>
-      <c r="F412" s="25" t="s">
+      <c r="F412" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="G412" s="25" t="s">
+      <c r="G412" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H412" s="25" t="s">
+      <c r="H412" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I412" s="20"/>
@@ -24188,25 +24206,25 @@
     </row>
     <row r="413" ht="43.5" customHeight="1" spans="1:33">
       <c r="A413" s="6"/>
-      <c r="B413" s="24">
+      <c r="B413" s="25">
         <v>0.75</v>
       </c>
-      <c r="C413" s="24">
+      <c r="C413" s="25">
         <v>0.125</v>
       </c>
-      <c r="D413" s="25">
+      <c r="D413" s="26">
         <v>1153727814</v>
       </c>
       <c r="E413" s="16">
         <v>10292490</v>
       </c>
-      <c r="F413" s="25" t="s">
+      <c r="F413" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="G413" s="25" t="s">
+      <c r="G413" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H413" s="25" t="s">
+      <c r="H413" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I413" s="20"/>
@@ -24237,13 +24255,13 @@
     </row>
     <row r="414" ht="43.5" customHeight="1" spans="1:33">
       <c r="A414" s="6"/>
-      <c r="B414" s="24"/>
-      <c r="C414" s="24"/>
-      <c r="D414" s="25"/>
+      <c r="B414" s="25"/>
+      <c r="C414" s="25"/>
+      <c r="D414" s="26"/>
       <c r="E414" s="16"/>
-      <c r="F414" s="25"/>
-      <c r="G414" s="25"/>
-      <c r="H414" s="25"/>
+      <c r="F414" s="26"/>
+      <c r="G414" s="26"/>
+      <c r="H414" s="26"/>
       <c r="I414" s="20"/>
       <c r="J414" s="19"/>
       <c r="K414" s="18"/>
@@ -24272,25 +24290,25 @@
     </row>
     <row r="415" ht="43.5" customHeight="1" spans="1:33">
       <c r="A415" s="6"/>
-      <c r="B415" s="24">
+      <c r="B415" s="25">
         <v>0.75</v>
       </c>
-      <c r="C415" s="24">
+      <c r="C415" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="D415" s="25">
+      <c r="D415" s="26">
         <v>1555773066</v>
       </c>
       <c r="E415" s="16">
         <v>10335909</v>
       </c>
-      <c r="F415" s="25" t="s">
+      <c r="F415" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="G415" s="25" t="s">
+      <c r="G415" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="H415" s="25" t="s">
+      <c r="H415" s="26" t="s">
         <v>176</v>
       </c>
       <c r="I415" s="20"/>
@@ -24321,13 +24339,13 @@
     </row>
     <row r="416" ht="43.5" customHeight="1" spans="1:33">
       <c r="A416" s="6"/>
-      <c r="B416" s="24"/>
-      <c r="C416" s="24"/>
-      <c r="D416" s="25"/>
+      <c r="B416" s="25"/>
+      <c r="C416" s="25"/>
+      <c r="D416" s="26"/>
       <c r="E416" s="16"/>
-      <c r="F416" s="25"/>
-      <c r="G416" s="25"/>
-      <c r="H416" s="25"/>
+      <c r="F416" s="26"/>
+      <c r="G416" s="26"/>
+      <c r="H416" s="26"/>
       <c r="I416" s="20"/>
       <c r="J416" s="19"/>
       <c r="K416" s="18"/>
@@ -25591,17 +25609,17 @@
       <c r="C446" s="14">
         <v>1.25</v>
       </c>
-      <c r="D446" s="15" t="s">
+      <c r="D446" s="15">
+        <v>1002894384</v>
+      </c>
+      <c r="E446" s="16">
+        <v>10347165</v>
+      </c>
+      <c r="F446" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="E446" s="16">
-        <v>10323972</v>
-      </c>
-      <c r="F446" s="15" t="s">
-        <v>430</v>
-      </c>
       <c r="G446" s="15" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="H446" s="15" t="s">
         <v>95</v>
@@ -25673,22 +25691,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C448" s="14">
-        <v>1.25</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="D448" s="15">
-        <v>1002894384</v>
+        <v>1551707019</v>
       </c>
       <c r="E448" s="16">
-        <v>10347165</v>
+        <v>10331829</v>
       </c>
       <c r="F448" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G448" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H448" s="15" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="I448" s="20"/>
       <c r="J448" s="19"/>
@@ -25760,19 +25778,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D450" s="15">
-        <v>1551707019</v>
+        <v>1030283695</v>
       </c>
       <c r="E450" s="16">
-        <v>10331829</v>
+        <v>10305646</v>
       </c>
       <c r="F450" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G450" s="15" t="s">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="H450" s="15" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="I450" s="20"/>
       <c r="J450" s="19"/>
@@ -25841,22 +25859,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C452" s="14">
-        <v>0.208333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="D452" s="15">
-        <v>1030283695</v>
+        <v>1091324859</v>
       </c>
       <c r="E452" s="16">
-        <v>10305646</v>
+        <v>10347007</v>
       </c>
       <c r="F452" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G452" s="15" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="H452" s="15" t="s">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="I452" s="20"/>
       <c r="J452" s="19"/>
@@ -25884,17 +25902,33 @@
       <c r="AF452" s="18"/>
       <c r="AG452" s="18"/>
     </row>
-    <row r="453" ht="47.25" customHeight="1" spans="1:33">
+    <row r="453" ht="43.5" customHeight="1" spans="1:33">
       <c r="A453" s="6"/>
-      <c r="B453" s="14"/>
-      <c r="C453" s="14"/>
-      <c r="D453" s="15"/>
-      <c r="E453" s="16"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="15"/>
-      <c r="H453" s="15"/>
+      <c r="B453" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C453" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D453" s="15">
+        <v>1281887573</v>
+      </c>
+      <c r="E453" s="16">
+        <v>10346088</v>
+      </c>
+      <c r="F453" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="G453" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H453" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I453" s="20"/>
-      <c r="J453" s="19"/>
+      <c r="J453" s="19" t="s">
+        <v>434</v>
+      </c>
       <c r="K453" s="18"/>
       <c r="L453" s="18"/>
       <c r="M453" s="18"/>
@@ -25921,27 +25955,13 @@
     </row>
     <row r="454" ht="47.25" customHeight="1" spans="1:33">
       <c r="A454" s="6"/>
-      <c r="B454" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C454" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D454" s="15">
-        <v>1091324859</v>
-      </c>
-      <c r="E454" s="16">
-        <v>10347007</v>
-      </c>
-      <c r="F454" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G454" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H454" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="D454" s="15"/>
+      <c r="E454" s="16"/>
+      <c r="F454" s="15"/>
+      <c r="G454" s="15"/>
+      <c r="H454" s="15"/>
       <c r="I454" s="20"/>
       <c r="J454" s="19"/>
       <c r="K454" s="18"/>
@@ -25970,13 +25990,27 @@
     </row>
     <row r="455" ht="47.25" customHeight="1" spans="1:33">
       <c r="A455" s="6"/>
-      <c r="B455" s="14"/>
-      <c r="C455" s="14"/>
-      <c r="D455" s="15"/>
-      <c r="E455" s="16"/>
-      <c r="F455" s="15"/>
-      <c r="G455" s="15"/>
-      <c r="H455" s="15"/>
+      <c r="B455" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C455" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D455" s="15">
+        <v>1031695970</v>
+      </c>
+      <c r="E455" s="16">
+        <v>10347183</v>
+      </c>
+      <c r="F455" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G455" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H455" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="I455" s="20"/>
       <c r="J455" s="19"/>
       <c r="K455" s="18"/>
@@ -26009,22 +26043,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C456" s="14">
-        <v>1.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D456" s="15">
-        <v>1031695970</v>
+        <v>1287028152</v>
       </c>
       <c r="E456" s="16">
-        <v>10347183</v>
+        <v>10316787</v>
       </c>
       <c r="F456" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G456" s="15" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="H456" s="15" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="I456" s="20"/>
       <c r="J456" s="19"/>
@@ -26054,27 +26088,13 @@
     </row>
     <row r="457" ht="47.25" customHeight="1" spans="1:33">
       <c r="A457" s="6"/>
-      <c r="B457" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C457" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D457" s="15">
-        <v>1287028152</v>
-      </c>
-      <c r="E457" s="16">
-        <v>10316787</v>
-      </c>
-      <c r="F457" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G457" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H457" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="D457" s="15"/>
+      <c r="E457" s="16"/>
+      <c r="F457" s="15"/>
+      <c r="G457" s="15"/>
+      <c r="H457" s="15"/>
       <c r="I457" s="20"/>
       <c r="J457" s="19"/>
       <c r="K457" s="18"/>
@@ -26103,13 +26123,27 @@
     </row>
     <row r="458" ht="47.25" customHeight="1" spans="1:33">
       <c r="A458" s="6"/>
-      <c r="B458" s="14"/>
-      <c r="C458" s="14"/>
-      <c r="D458" s="15"/>
-      <c r="E458" s="16"/>
-      <c r="F458" s="15"/>
-      <c r="G458" s="15"/>
-      <c r="H458" s="15"/>
+      <c r="B458" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C458" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D458" s="15">
+        <v>1203091448</v>
+      </c>
+      <c r="E458" s="16">
+        <v>10344261</v>
+      </c>
+      <c r="F458" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="G458" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H458" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="I458" s="20"/>
       <c r="J458" s="19"/>
       <c r="K458" s="18"/>
@@ -26138,27 +26172,13 @@
     </row>
     <row r="459" ht="47.25" customHeight="1" spans="1:33">
       <c r="A459" s="6"/>
-      <c r="B459" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C459" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D459" s="15">
-        <v>1203091448</v>
-      </c>
-      <c r="E459" s="16">
-        <v>10344261</v>
-      </c>
-      <c r="F459" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="G459" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H459" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="15"/>
+      <c r="E459" s="16"/>
+      <c r="F459" s="15"/>
+      <c r="G459" s="15"/>
+      <c r="H459" s="15"/>
       <c r="I459" s="20"/>
       <c r="J459" s="19"/>
       <c r="K459" s="18"/>
@@ -26185,15 +26205,17 @@
       <c r="AF459" s="18"/>
       <c r="AG459" s="18"/>
     </row>
-    <row r="460" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A460" s="6"/>
-      <c r="B460" s="14"/>
-      <c r="C460" s="14"/>
-      <c r="D460" s="15"/>
-      <c r="E460" s="16"/>
-      <c r="F460" s="15"/>
-      <c r="G460" s="15"/>
-      <c r="H460" s="15"/>
+    <row r="460" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A460" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B460" s="10"/>
+      <c r="C460" s="10"/>
+      <c r="D460" s="10"/>
+      <c r="E460" s="11"/>
+      <c r="F460" s="10"/>
+      <c r="G460" s="10"/>
+      <c r="H460" s="10"/>
       <c r="I460" s="20"/>
       <c r="J460" s="19"/>
       <c r="K460" s="18"/>
@@ -26220,17 +26242,29 @@
       <c r="AF460" s="18"/>
       <c r="AG460" s="18"/>
     </row>
-    <row r="461" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A461" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="B461" s="10"/>
-      <c r="C461" s="10"/>
-      <c r="D461" s="10"/>
-      <c r="E461" s="11"/>
-      <c r="F461" s="10"/>
-      <c r="G461" s="10"/>
-      <c r="H461" s="10"/>
+    <row r="461" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A461" s="9"/>
+      <c r="B461" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D461" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E461" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F461" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G461" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H461" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I461" s="20"/>
       <c r="J461" s="19"/>
       <c r="K461" s="18"/>
@@ -26257,29 +26291,15 @@
       <c r="AF461" s="18"/>
       <c r="AG461" s="18"/>
     </row>
-    <row r="462" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A462" s="9"/>
-      <c r="B462" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C462" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D462" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E462" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F462" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G462" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H462" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="462" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A462" s="6"/>
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="D462" s="15"/>
+      <c r="E462" s="16"/>
+      <c r="F462" s="15"/>
+      <c r="G462" s="15"/>
+      <c r="H462" s="15"/>
       <c r="I462" s="20"/>
       <c r="J462" s="19"/>
       <c r="K462" s="18"/>
@@ -26308,13 +26328,27 @@
     </row>
     <row r="463" ht="47.25" customHeight="1" spans="1:33">
       <c r="A463" s="6"/>
-      <c r="B463" s="14"/>
-      <c r="C463" s="14"/>
-      <c r="D463" s="15"/>
-      <c r="E463" s="16"/>
-      <c r="F463" s="15"/>
-      <c r="G463" s="15"/>
-      <c r="H463" s="15"/>
+      <c r="B463" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C463" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="15">
+        <v>1004402706</v>
+      </c>
+      <c r="E463" s="16">
+        <v>10344755</v>
+      </c>
+      <c r="F463" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="G463" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H463" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="I463" s="20"/>
       <c r="J463" s="19"/>
       <c r="K463" s="18"/>
@@ -26350,19 +26384,19 @@
         <v>1.25</v>
       </c>
       <c r="D464" s="15">
-        <v>1004402706</v>
+        <v>1091172333</v>
       </c>
       <c r="E464" s="16">
-        <v>10344755</v>
+        <v>10347609</v>
       </c>
       <c r="F464" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G464" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H464" s="15" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="I464" s="20"/>
       <c r="J464" s="19"/>
@@ -26399,19 +26433,19 @@
         <v>1.25</v>
       </c>
       <c r="D465" s="15">
-        <v>1091172333</v>
+        <v>1020340671</v>
       </c>
       <c r="E465" s="16">
-        <v>10347609</v>
+        <v>10347646</v>
       </c>
       <c r="F465" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G465" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H465" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I465" s="20"/>
       <c r="J465" s="19"/>
@@ -26445,22 +26479,22 @@
         <v>0.875</v>
       </c>
       <c r="C466" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D466" s="15">
-        <v>1020340671</v>
+        <v>1278809178</v>
       </c>
       <c r="E466" s="16">
-        <v>10347646</v>
+        <v>10298710</v>
       </c>
       <c r="F466" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G466" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H466" s="15" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="I466" s="20"/>
       <c r="J466" s="19"/>
@@ -26490,27 +26524,13 @@
     </row>
     <row r="467" ht="47.25" customHeight="1" spans="1:33">
       <c r="A467" s="6"/>
-      <c r="B467" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C467" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D467" s="15">
-        <v>1278809178</v>
-      </c>
-      <c r="E467" s="16">
-        <v>10298710</v>
-      </c>
-      <c r="F467" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="G467" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H467" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="15"/>
+      <c r="E467" s="16"/>
+      <c r="F467" s="15"/>
+      <c r="G467" s="15"/>
+      <c r="H467" s="15"/>
       <c r="I467" s="20"/>
       <c r="J467" s="19"/>
       <c r="K467" s="18"/>
@@ -26539,13 +26559,27 @@
     </row>
     <row r="468" ht="47.25" customHeight="1" spans="1:33">
       <c r="A468" s="6"/>
-      <c r="B468" s="14"/>
-      <c r="C468" s="14"/>
-      <c r="D468" s="15"/>
-      <c r="E468" s="16"/>
-      <c r="F468" s="15"/>
-      <c r="G468" s="15"/>
-      <c r="H468" s="15"/>
+      <c r="B468" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C468" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D468" s="15">
+        <v>1104380295</v>
+      </c>
+      <c r="E468" s="16">
+        <v>10347991</v>
+      </c>
+      <c r="F468" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G468" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H468" s="15" t="s">
+        <v>443</v>
+      </c>
       <c r="I468" s="20"/>
       <c r="J468" s="19"/>
       <c r="K468" s="18"/>
@@ -26574,27 +26608,13 @@
     </row>
     <row r="469" ht="47.25" customHeight="1" spans="1:33">
       <c r="A469" s="6"/>
-      <c r="B469" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C469" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D469" s="15">
-        <v>1104380295</v>
-      </c>
-      <c r="E469" s="16">
-        <v>10347991</v>
-      </c>
-      <c r="F469" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G469" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H469" s="15" t="s">
-        <v>443</v>
-      </c>
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="D469" s="15"/>
+      <c r="E469" s="16"/>
+      <c r="F469" s="15"/>
+      <c r="G469" s="15"/>
+      <c r="H469" s="15"/>
       <c r="I469" s="20"/>
       <c r="J469" s="19"/>
       <c r="K469" s="18"/>
@@ -26623,13 +26643,27 @@
     </row>
     <row r="470" ht="47.25" customHeight="1" spans="1:33">
       <c r="A470" s="6"/>
-      <c r="B470" s="14"/>
-      <c r="C470" s="14"/>
-      <c r="D470" s="15"/>
-      <c r="E470" s="16"/>
-      <c r="F470" s="15"/>
-      <c r="G470" s="15"/>
-      <c r="H470" s="15"/>
+      <c r="B470" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C470" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D470" s="15">
+        <v>1055980976</v>
+      </c>
+      <c r="E470" s="16">
+        <v>10348043</v>
+      </c>
+      <c r="F470" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G470" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H470" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="I470" s="20"/>
       <c r="J470" s="19"/>
       <c r="K470" s="18"/>
@@ -26658,27 +26692,13 @@
     </row>
     <row r="471" ht="47.25" customHeight="1" spans="1:33">
       <c r="A471" s="6"/>
-      <c r="B471" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C471" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D471" s="15">
-        <v>1055980976</v>
-      </c>
-      <c r="E471" s="16">
-        <v>10348043</v>
-      </c>
-      <c r="F471" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G471" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H471" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="D471" s="15"/>
+      <c r="E471" s="16"/>
+      <c r="F471" s="15"/>
+      <c r="G471" s="15"/>
+      <c r="H471" s="15"/>
       <c r="I471" s="20"/>
       <c r="J471" s="19"/>
       <c r="K471" s="18"/>
@@ -26707,13 +26727,27 @@
     </row>
     <row r="472" ht="47.25" customHeight="1" spans="1:33">
       <c r="A472" s="6"/>
-      <c r="B472" s="14"/>
-      <c r="C472" s="14"/>
-      <c r="D472" s="15"/>
-      <c r="E472" s="16"/>
-      <c r="F472" s="15"/>
-      <c r="G472" s="15"/>
-      <c r="H472" s="15"/>
+      <c r="B472" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C472" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D472" s="15">
+        <v>1004919775</v>
+      </c>
+      <c r="E472" s="16">
+        <v>10347219</v>
+      </c>
+      <c r="F472" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G472" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H472" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="I472" s="20"/>
       <c r="J472" s="19"/>
       <c r="K472" s="18"/>
@@ -26749,19 +26783,19 @@
         <v>1.25</v>
       </c>
       <c r="D473" s="15">
-        <v>1004919775</v>
+        <v>1155829737</v>
       </c>
       <c r="E473" s="16">
-        <v>10347219</v>
+        <v>10347259</v>
       </c>
       <c r="F473" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G473" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H473" s="15" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="I473" s="20"/>
       <c r="J473" s="19"/>
@@ -26798,19 +26832,19 @@
         <v>1.25</v>
       </c>
       <c r="D474" s="15">
-        <v>1155829737</v>
+        <v>1093300936</v>
       </c>
       <c r="E474" s="16">
-        <v>10347259</v>
+        <v>10347607</v>
       </c>
       <c r="F474" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G474" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H474" s="15" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="I474" s="20"/>
       <c r="J474" s="19"/>
@@ -26847,13 +26881,13 @@
         <v>1.25</v>
       </c>
       <c r="D475" s="15">
-        <v>1093300936</v>
+        <v>1144418499</v>
       </c>
       <c r="E475" s="16">
-        <v>10347607</v>
+        <v>10347630</v>
       </c>
       <c r="F475" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G475" s="15" t="s">
         <v>33</v>
@@ -26889,27 +26923,13 @@
     </row>
     <row r="476" ht="47.25" customHeight="1" spans="1:33">
       <c r="A476" s="6"/>
-      <c r="B476" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C476" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D476" s="15">
-        <v>1144418499</v>
-      </c>
-      <c r="E476" s="16">
-        <v>10347630</v>
-      </c>
-      <c r="F476" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="G476" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H476" s="15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="D476" s="15"/>
+      <c r="E476" s="16"/>
+      <c r="F476" s="15"/>
+      <c r="G476" s="15"/>
+      <c r="H476" s="15"/>
       <c r="I476" s="20"/>
       <c r="J476" s="19"/>
       <c r="K476" s="18"/>
@@ -26938,13 +26958,27 @@
     </row>
     <row r="477" ht="47.25" customHeight="1" spans="1:33">
       <c r="A477" s="6"/>
-      <c r="B477" s="14"/>
-      <c r="C477" s="14"/>
-      <c r="D477" s="15"/>
-      <c r="E477" s="16"/>
-      <c r="F477" s="15"/>
-      <c r="G477" s="15"/>
-      <c r="H477" s="15"/>
+      <c r="B477" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C477" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D477" s="15">
+        <v>1228798735</v>
+      </c>
+      <c r="E477" s="16">
+        <v>10347758</v>
+      </c>
+      <c r="F477" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="G477" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H477" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="I477" s="20"/>
       <c r="J477" s="19"/>
       <c r="K477" s="18"/>
@@ -26977,16 +27011,16 @@
         <v>0.875</v>
       </c>
       <c r="C478" s="14">
-        <v>0.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="D478" s="15">
-        <v>1228798735</v>
+        <v>1097424636</v>
       </c>
       <c r="E478" s="16">
-        <v>10347758</v>
+        <v>10347983</v>
       </c>
       <c r="F478" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G478" s="15" t="s">
         <v>15</v>
@@ -27026,22 +27060,22 @@
         <v>0.875</v>
       </c>
       <c r="C479" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D479" s="15">
-        <v>1097424636</v>
+        <v>1110689559</v>
       </c>
       <c r="E479" s="16">
-        <v>10347983</v>
+        <v>10316740</v>
       </c>
       <c r="F479" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G479" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H479" s="15" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="I479" s="20"/>
       <c r="J479" s="19"/>
@@ -27071,27 +27105,13 @@
     </row>
     <row r="480" ht="47.25" customHeight="1" spans="1:33">
       <c r="A480" s="6"/>
-      <c r="B480" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C480" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D480" s="15">
-        <v>1110689559</v>
-      </c>
-      <c r="E480" s="16">
-        <v>10316740</v>
-      </c>
-      <c r="F480" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="G480" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H480" s="15" t="s">
-        <v>333</v>
-      </c>
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
+      <c r="D480" s="15"/>
+      <c r="E480" s="16"/>
+      <c r="F480" s="15"/>
+      <c r="G480" s="15"/>
+      <c r="H480" s="15"/>
       <c r="I480" s="20"/>
       <c r="J480" s="19"/>
       <c r="K480" s="18"/>
@@ -27120,13 +27140,27 @@
     </row>
     <row r="481" ht="47.25" customHeight="1" spans="1:33">
       <c r="A481" s="6"/>
-      <c r="B481" s="14"/>
-      <c r="C481" s="14"/>
-      <c r="D481" s="15"/>
-      <c r="E481" s="16"/>
-      <c r="F481" s="15"/>
-      <c r="G481" s="15"/>
-      <c r="H481" s="15"/>
+      <c r="B481" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C481" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D481" s="15">
+        <v>1011053278</v>
+      </c>
+      <c r="E481" s="16">
+        <v>10347176</v>
+      </c>
+      <c r="F481" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="G481" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H481" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="I481" s="20"/>
       <c r="J481" s="19"/>
       <c r="K481" s="18"/>
@@ -27159,16 +27193,16 @@
         <v>0.875</v>
       </c>
       <c r="C482" s="14">
-        <v>1.29166666666667</v>
+        <v>1.25</v>
       </c>
       <c r="D482" s="15">
-        <v>1011053278</v>
+        <v>1096062793</v>
       </c>
       <c r="E482" s="16">
-        <v>10347176</v>
+        <v>10347754</v>
       </c>
       <c r="F482" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G482" s="15" t="s">
         <v>137</v>
@@ -27210,20 +27244,20 @@
       <c r="C483" s="14">
         <v>1.25</v>
       </c>
-      <c r="D483" s="15">
-        <v>1096062793</v>
+      <c r="D483" s="15" t="s">
+        <v>454</v>
       </c>
       <c r="E483" s="16">
-        <v>10347754</v>
+        <v>10347261</v>
       </c>
       <c r="F483" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G483" s="15" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="H483" s="15" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="I483" s="20"/>
       <c r="J483" s="19"/>
@@ -27253,27 +27287,13 @@
     </row>
     <row r="484" ht="47.25" customHeight="1" spans="1:33">
       <c r="A484" s="6"/>
-      <c r="B484" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C484" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D484" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E484" s="16">
-        <v>10347261</v>
-      </c>
-      <c r="F484" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="G484" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H484" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
+      <c r="D484" s="15"/>
+      <c r="E484" s="16"/>
+      <c r="F484" s="15"/>
+      <c r="G484" s="15"/>
+      <c r="H484" s="15"/>
       <c r="I484" s="20"/>
       <c r="J484" s="19"/>
       <c r="K484" s="18"/>
@@ -27300,15 +27320,17 @@
       <c r="AF484" s="18"/>
       <c r="AG484" s="18"/>
     </row>
-    <row r="485" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A485" s="6"/>
-      <c r="B485" s="14"/>
-      <c r="C485" s="14"/>
-      <c r="D485" s="15"/>
-      <c r="E485" s="16"/>
-      <c r="F485" s="15"/>
-      <c r="G485" s="15"/>
-      <c r="H485" s="15"/>
+    <row r="485" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A485" s="9">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B485" s="10"/>
+      <c r="C485" s="10"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="11"/>
+      <c r="F485" s="10"/>
+      <c r="G485" s="10"/>
+      <c r="H485" s="10"/>
       <c r="I485" s="20"/>
       <c r="J485" s="19"/>
       <c r="K485" s="18"/>
@@ -27335,17 +27357,29 @@
       <c r="AF485" s="18"/>
       <c r="AG485" s="18"/>
     </row>
-    <row r="486" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A486" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B486" s="10"/>
-      <c r="C486" s="10"/>
-      <c r="D486" s="10"/>
-      <c r="E486" s="11"/>
-      <c r="F486" s="10"/>
-      <c r="G486" s="10"/>
-      <c r="H486" s="10"/>
+    <row r="486" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A486" s="9"/>
+      <c r="B486" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D486" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E486" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F486" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G486" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H486" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I486" s="20"/>
       <c r="J486" s="19"/>
       <c r="K486" s="18"/>
@@ -27372,29 +27406,15 @@
       <c r="AF486" s="18"/>
       <c r="AG486" s="18"/>
     </row>
-    <row r="487" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A487" s="9"/>
-      <c r="B487" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C487" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D487" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E487" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F487" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G487" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H487" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="487" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A487" s="6"/>
+      <c r="B487" s="14"/>
+      <c r="C487" s="14"/>
+      <c r="D487" s="15"/>
+      <c r="E487" s="16"/>
+      <c r="F487" s="15"/>
+      <c r="G487" s="15"/>
+      <c r="H487" s="15"/>
       <c r="I487" s="20"/>
       <c r="J487" s="19"/>
       <c r="K487" s="18"/>
@@ -27423,13 +27443,27 @@
     </row>
     <row r="488" ht="47.25" customHeight="1" spans="1:33">
       <c r="A488" s="6"/>
-      <c r="B488" s="14"/>
-      <c r="C488" s="14"/>
-      <c r="D488" s="15"/>
-      <c r="E488" s="16"/>
-      <c r="F488" s="15"/>
-      <c r="G488" s="15"/>
-      <c r="H488" s="15"/>
+      <c r="B488" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C488" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D488" s="15">
+        <v>1111993596</v>
+      </c>
+      <c r="E488" s="16">
+        <v>10348040</v>
+      </c>
+      <c r="F488" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="G488" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H488" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="I488" s="20"/>
       <c r="J488" s="19"/>
       <c r="K488" s="18"/>
@@ -27464,14 +27498,14 @@
       <c r="C489" s="14">
         <v>1.29166666666667</v>
       </c>
-      <c r="D489" s="15">
-        <v>1111993596</v>
+      <c r="D489" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="E489" s="16">
-        <v>10348040</v>
+        <v>10348044</v>
       </c>
       <c r="F489" s="15" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G489" s="15" t="s">
         <v>20</v>
@@ -27507,27 +27541,13 @@
     </row>
     <row r="490" ht="47.25" customHeight="1" spans="1:33">
       <c r="A490" s="6"/>
-      <c r="B490" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C490" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D490" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="E490" s="16">
-        <v>10348044</v>
-      </c>
-      <c r="F490" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="G490" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H490" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="D490" s="15"/>
+      <c r="E490" s="16"/>
+      <c r="F490" s="15"/>
+      <c r="G490" s="15"/>
+      <c r="H490" s="15"/>
       <c r="I490" s="20"/>
       <c r="J490" s="19"/>
       <c r="K490" s="18"/>
@@ -27556,13 +27576,27 @@
     </row>
     <row r="491" ht="47.25" customHeight="1" spans="1:33">
       <c r="A491" s="6"/>
-      <c r="B491" s="14"/>
-      <c r="C491" s="14"/>
-      <c r="D491" s="15"/>
-      <c r="E491" s="16"/>
-      <c r="F491" s="15"/>
-      <c r="G491" s="15"/>
-      <c r="H491" s="15"/>
+      <c r="B491" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C491" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D491" s="15">
+        <v>1016508706</v>
+      </c>
+      <c r="E491" s="16">
+        <v>10348045</v>
+      </c>
+      <c r="F491" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="G491" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H491" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I491" s="20"/>
       <c r="J491" s="19"/>
       <c r="K491" s="18"/>
@@ -27591,27 +27625,13 @@
     </row>
     <row r="492" ht="47.25" customHeight="1" spans="1:33">
       <c r="A492" s="6"/>
-      <c r="B492" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C492" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D492" s="15">
-        <v>1016508706</v>
-      </c>
-      <c r="E492" s="16">
-        <v>10348045</v>
-      </c>
-      <c r="F492" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="G492" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H492" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="D492" s="15"/>
+      <c r="E492" s="16"/>
+      <c r="F492" s="15"/>
+      <c r="G492" s="15"/>
+      <c r="H492" s="15"/>
       <c r="I492" s="20"/>
       <c r="J492" s="19"/>
       <c r="K492" s="18"/>
@@ -27640,13 +27660,27 @@
     </row>
     <row r="493" ht="47.25" customHeight="1" spans="1:33">
       <c r="A493" s="6"/>
-      <c r="B493" s="14"/>
-      <c r="C493" s="14"/>
-      <c r="D493" s="15"/>
-      <c r="E493" s="16"/>
-      <c r="F493" s="15"/>
-      <c r="G493" s="15"/>
-      <c r="H493" s="15"/>
+      <c r="B493" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C493" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D493" s="15">
+        <v>0</v>
+      </c>
+      <c r="E493" s="16">
+        <v>10303751</v>
+      </c>
+      <c r="F493" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="G493" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H493" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="I493" s="20"/>
       <c r="J493" s="19"/>
       <c r="K493" s="18"/>
@@ -27682,13 +27716,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D494" s="15">
-        <v>0</v>
+        <v>1000136922</v>
       </c>
       <c r="E494" s="16">
-        <v>10303751</v>
+        <v>10330150</v>
       </c>
       <c r="F494" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G494" s="15" t="s">
         <v>30</v>
@@ -27724,27 +27758,13 @@
     </row>
     <row r="495" ht="47.25" customHeight="1" spans="1:33">
       <c r="A495" s="6"/>
-      <c r="B495" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C495" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D495" s="15">
-        <v>1000136922</v>
-      </c>
-      <c r="E495" s="16">
-        <v>10330150</v>
-      </c>
-      <c r="F495" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="G495" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H495" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="D495" s="15"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="15"/>
+      <c r="G495" s="15"/>
+      <c r="H495" s="15"/>
       <c r="I495" s="20"/>
       <c r="J495" s="19"/>
       <c r="K495" s="18"/>
@@ -27773,13 +27793,27 @@
     </row>
     <row r="496" ht="47.25" customHeight="1" spans="1:33">
       <c r="A496" s="6"/>
-      <c r="B496" s="14"/>
-      <c r="C496" s="14"/>
-      <c r="D496" s="15"/>
-      <c r="E496" s="16"/>
-      <c r="F496" s="15"/>
-      <c r="G496" s="15"/>
-      <c r="H496" s="15"/>
+      <c r="B496" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C496" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D496" s="15">
+        <v>1070869955</v>
+      </c>
+      <c r="E496" s="16">
+        <v>10334381</v>
+      </c>
+      <c r="F496" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G496" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H496" s="15" t="s">
+        <v>207</v>
+      </c>
       <c r="I496" s="20"/>
       <c r="J496" s="19"/>
       <c r="K496" s="18"/>
@@ -27808,27 +27842,13 @@
     </row>
     <row r="497" ht="47.25" customHeight="1" spans="1:33">
       <c r="A497" s="6"/>
-      <c r="B497" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C497" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D497" s="15">
-        <v>1070869955</v>
-      </c>
-      <c r="E497" s="16">
-        <v>10334381</v>
-      </c>
-      <c r="F497" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="G497" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H497" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="B497" s="14"/>
+      <c r="C497" s="14"/>
+      <c r="D497" s="15"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="15"/>
+      <c r="G497" s="15"/>
+      <c r="H497" s="15"/>
       <c r="I497" s="20"/>
       <c r="J497" s="19"/>
       <c r="K497" s="18"/>
@@ -27857,13 +27877,27 @@
     </row>
     <row r="498" ht="47.25" customHeight="1" spans="1:33">
       <c r="A498" s="6"/>
-      <c r="B498" s="14"/>
-      <c r="C498" s="14"/>
-      <c r="D498" s="15"/>
-      <c r="E498" s="16"/>
-      <c r="F498" s="15"/>
-      <c r="G498" s="15"/>
-      <c r="H498" s="15"/>
+      <c r="B498" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C498" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D498" s="15">
+        <v>1552456793</v>
+      </c>
+      <c r="E498" s="16">
+        <v>10344749</v>
+      </c>
+      <c r="F498" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="G498" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H498" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="I498" s="20"/>
       <c r="J498" s="19"/>
       <c r="K498" s="18"/>
@@ -27899,19 +27933,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D499" s="15">
-        <v>1552456793</v>
+        <v>1099884506</v>
       </c>
       <c r="E499" s="16">
-        <v>10344749</v>
+        <v>10346886</v>
       </c>
       <c r="F499" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G499" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H499" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I499" s="20"/>
       <c r="J499" s="19"/>
@@ -27945,22 +27979,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C500" s="14">
-        <v>0.333333333333333</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D500" s="15">
-        <v>1099884506</v>
+        <v>1013996057</v>
       </c>
       <c r="E500" s="16">
-        <v>10346886</v>
+        <v>10347993</v>
       </c>
       <c r="F500" s="15" t="s">
-        <v>464</v>
+        <v>59</v>
       </c>
       <c r="G500" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H500" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I500" s="20"/>
       <c r="J500" s="19"/>
@@ -27996,20 +28030,20 @@
       <c r="C501" s="14">
         <v>1.29166666666667</v>
       </c>
-      <c r="D501" s="15">
-        <v>1013996057</v>
+      <c r="D501" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="E501" s="16">
-        <v>10347993</v>
+        <v>10348000</v>
       </c>
       <c r="F501" s="15" t="s">
-        <v>59</v>
+        <v>466</v>
       </c>
       <c r="G501" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H501" s="15" t="s">
-        <v>125</v>
+        <v>467</v>
       </c>
       <c r="I501" s="20"/>
       <c r="J501" s="19"/>
@@ -28039,27 +28073,13 @@
     </row>
     <row r="502" ht="47.25" customHeight="1" spans="1:33">
       <c r="A502" s="6"/>
-      <c r="B502" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C502" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D502" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="E502" s="16">
-        <v>10348000</v>
-      </c>
-      <c r="F502" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="G502" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H502" s="15" t="s">
-        <v>467</v>
-      </c>
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="D502" s="15"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="15"/>
+      <c r="G502" s="15"/>
+      <c r="H502" s="15"/>
       <c r="I502" s="20"/>
       <c r="J502" s="19"/>
       <c r="K502" s="18"/>
@@ -28088,13 +28108,27 @@
     </row>
     <row r="503" ht="47.25" customHeight="1" spans="1:33">
       <c r="A503" s="6"/>
-      <c r="B503" s="14"/>
-      <c r="C503" s="14"/>
-      <c r="D503" s="15"/>
-      <c r="E503" s="16"/>
-      <c r="F503" s="15"/>
-      <c r="G503" s="15"/>
-      <c r="H503" s="15"/>
+      <c r="B503" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C503" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D503" s="15">
+        <v>1270864338</v>
+      </c>
+      <c r="E503" s="16">
+        <v>10347997</v>
+      </c>
+      <c r="F503" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G503" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H503" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="I503" s="20"/>
       <c r="J503" s="19"/>
       <c r="K503" s="18"/>
@@ -28130,19 +28164,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D504" s="15">
-        <v>1270864338</v>
+        <v>1500087789</v>
       </c>
       <c r="E504" s="16">
-        <v>10347997</v>
+        <v>10348054</v>
       </c>
       <c r="F504" s="15" t="s">
-        <v>277</v>
+        <v>468</v>
       </c>
       <c r="G504" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H504" s="15" t="s">
-        <v>36</v>
+        <v>469</v>
       </c>
       <c r="I504" s="20"/>
       <c r="J504" s="19"/>
@@ -28176,22 +28210,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C505" s="14">
-        <v>1.29166666666667</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="D505" s="15">
-        <v>1500087789</v>
+        <v>1005741195</v>
       </c>
       <c r="E505" s="16">
-        <v>10348054</v>
+        <v>10335060</v>
       </c>
       <c r="F505" s="15" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G505" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H505" s="15" t="s">
-        <v>469</v>
+        <v>36</v>
       </c>
       <c r="I505" s="20"/>
       <c r="J505" s="19"/>
@@ -28221,27 +28255,13 @@
     </row>
     <row r="506" ht="47.25" customHeight="1" spans="1:33">
       <c r="A506" s="6"/>
-      <c r="B506" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C506" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D506" s="15">
-        <v>1005741195</v>
-      </c>
-      <c r="E506" s="16">
-        <v>10335060</v>
-      </c>
-      <c r="F506" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="G506" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H506" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="B506" s="14"/>
+      <c r="C506" s="14"/>
+      <c r="D506" s="15"/>
+      <c r="E506" s="16"/>
+      <c r="F506" s="15"/>
+      <c r="G506" s="15"/>
+      <c r="H506" s="15"/>
       <c r="I506" s="20"/>
       <c r="J506" s="19"/>
       <c r="K506" s="18"/>
@@ -28270,13 +28290,27 @@
     </row>
     <row r="507" ht="47.25" customHeight="1" spans="1:33">
       <c r="A507" s="6"/>
-      <c r="B507" s="14"/>
-      <c r="C507" s="14"/>
-      <c r="D507" s="15"/>
-      <c r="E507" s="16"/>
-      <c r="F507" s="15"/>
-      <c r="G507" s="15"/>
-      <c r="H507" s="15"/>
+      <c r="B507" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C507" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D507" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="E507" s="16">
+        <v>10348008</v>
+      </c>
+      <c r="F507" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G507" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H507" s="15" t="s">
+        <v>422</v>
+      </c>
       <c r="I507" s="20"/>
       <c r="J507" s="19"/>
       <c r="K507" s="18"/>
@@ -28311,14 +28345,14 @@
       <c r="C508" s="14">
         <v>1.29166666666667</v>
       </c>
-      <c r="D508" s="15" t="s">
-        <v>471</v>
+      <c r="D508" s="15">
+        <v>1558595142</v>
       </c>
       <c r="E508" s="16">
-        <v>10348008</v>
+        <v>10348055</v>
       </c>
       <c r="F508" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G508" s="15" t="s">
         <v>137</v>
@@ -28358,22 +28392,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C509" s="14">
-        <v>1.29166666666667</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="D509" s="15">
-        <v>1558595142</v>
+        <v>1505499876</v>
       </c>
       <c r="E509" s="16">
-        <v>10348055</v>
+        <v>10333845</v>
       </c>
       <c r="F509" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G509" s="15" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="H509" s="15" t="s">
-        <v>422</v>
+        <v>13</v>
       </c>
       <c r="I509" s="20"/>
       <c r="J509" s="19"/>
@@ -28403,27 +28437,13 @@
     </row>
     <row r="510" ht="47.25" customHeight="1" spans="1:33">
       <c r="A510" s="6"/>
-      <c r="B510" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C510" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D510" s="15">
-        <v>1505499876</v>
-      </c>
-      <c r="E510" s="16">
-        <v>10333845</v>
-      </c>
-      <c r="F510" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G510" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H510" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="D510" s="15"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="15"/>
+      <c r="G510" s="15"/>
+      <c r="H510" s="15"/>
       <c r="I510" s="20"/>
       <c r="J510" s="19"/>
       <c r="K510" s="18"/>
@@ -28452,13 +28472,27 @@
     </row>
     <row r="511" ht="47.25" customHeight="1" spans="1:33">
       <c r="A511" s="6"/>
-      <c r="B511" s="14"/>
-      <c r="C511" s="14"/>
-      <c r="D511" s="15"/>
-      <c r="E511" s="16"/>
-      <c r="F511" s="15"/>
-      <c r="G511" s="15"/>
-      <c r="H511" s="15"/>
+      <c r="B511" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C511" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D511" s="15">
+        <v>1140254052</v>
+      </c>
+      <c r="E511" s="16">
+        <v>10344240</v>
+      </c>
+      <c r="F511" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="G511" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H511" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="I511" s="20"/>
       <c r="J511" s="19"/>
       <c r="K511" s="18"/>
@@ -28487,27 +28521,13 @@
     </row>
     <row r="512" ht="47.25" customHeight="1" spans="1:33">
       <c r="A512" s="6"/>
-      <c r="B512" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C512" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D512" s="15">
-        <v>1140254052</v>
-      </c>
-      <c r="E512" s="16">
-        <v>10344240</v>
-      </c>
-      <c r="F512" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G512" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H512" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="B512" s="14"/>
+      <c r="C512" s="14"/>
+      <c r="D512" s="15"/>
+      <c r="E512" s="16"/>
+      <c r="F512" s="15"/>
+      <c r="G512" s="15"/>
+      <c r="H512" s="15"/>
       <c r="I512" s="20"/>
       <c r="J512" s="19"/>
       <c r="K512" s="18"/>
@@ -28534,15 +28554,17 @@
       <c r="AF512" s="18"/>
       <c r="AG512" s="18"/>
     </row>
-    <row r="513" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A513" s="6"/>
-      <c r="B513" s="14"/>
-      <c r="C513" s="14"/>
-      <c r="D513" s="15"/>
-      <c r="E513" s="16"/>
-      <c r="F513" s="15"/>
-      <c r="G513" s="15"/>
-      <c r="H513" s="15"/>
+    <row r="513" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A513" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="B513" s="10"/>
+      <c r="C513" s="10"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="11"/>
+      <c r="F513" s="10"/>
+      <c r="G513" s="10"/>
+      <c r="H513" s="10"/>
       <c r="I513" s="20"/>
       <c r="J513" s="19"/>
       <c r="K513" s="18"/>
@@ -28569,17 +28591,29 @@
       <c r="AF513" s="18"/>
       <c r="AG513" s="18"/>
     </row>
-    <row r="514" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A514" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="B514" s="10"/>
-      <c r="C514" s="10"/>
-      <c r="D514" s="10"/>
-      <c r="E514" s="11"/>
-      <c r="F514" s="10"/>
-      <c r="G514" s="10"/>
-      <c r="H514" s="10"/>
+    <row r="514" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A514" s="12"/>
+      <c r="B514" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C514" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D514" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E514" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F514" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G514" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H514" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I514" s="20"/>
       <c r="J514" s="19"/>
       <c r="K514" s="18"/>
@@ -28607,28 +28641,14 @@
       <c r="AG514" s="18"/>
     </row>
     <row r="515" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A515" s="12"/>
-      <c r="B515" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C515" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D515" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E515" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F515" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G515" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H515" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A515" s="6"/>
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="D515" s="15"/>
+      <c r="E515" s="16"/>
+      <c r="F515" s="15"/>
+      <c r="G515" s="15"/>
+      <c r="H515" s="15"/>
       <c r="I515" s="20"/>
       <c r="J515" s="19"/>
       <c r="K515" s="18"/>
@@ -28657,13 +28677,27 @@
     </row>
     <row r="516" ht="43.5" customHeight="1" spans="1:33">
       <c r="A516" s="6"/>
-      <c r="B516" s="14"/>
-      <c r="C516" s="14"/>
-      <c r="D516" s="15"/>
-      <c r="E516" s="16"/>
-      <c r="F516" s="15"/>
-      <c r="G516" s="15"/>
-      <c r="H516" s="15"/>
+      <c r="B516" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C516" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D516" s="15">
+        <v>1005018561</v>
+      </c>
+      <c r="E516" s="16">
+        <v>10347014</v>
+      </c>
+      <c r="F516" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G516" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H516" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I516" s="20"/>
       <c r="J516" s="19"/>
       <c r="K516" s="18"/>
@@ -28699,19 +28733,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D517" s="15">
-        <v>1005018561</v>
+        <v>1092831999</v>
       </c>
       <c r="E517" s="16">
-        <v>10347014</v>
+        <v>10344167</v>
       </c>
       <c r="F517" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G517" s="15" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="H517" s="15" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="I517" s="20"/>
       <c r="J517" s="19"/>
@@ -28741,27 +28775,13 @@
     </row>
     <row r="518" ht="43.5" customHeight="1" spans="1:33">
       <c r="A518" s="6"/>
-      <c r="B518" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C518" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D518" s="15">
-        <v>1092831999</v>
-      </c>
-      <c r="E518" s="16">
-        <v>10344167</v>
-      </c>
-      <c r="F518" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="G518" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="H518" s="15" t="s">
-        <v>478</v>
-      </c>
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="D518" s="15"/>
+      <c r="E518" s="16"/>
+      <c r="F518" s="15"/>
+      <c r="G518" s="15"/>
+      <c r="H518" s="15"/>
       <c r="I518" s="20"/>
       <c r="J518" s="19"/>
       <c r="K518" s="18"/>
@@ -28790,13 +28810,27 @@
     </row>
     <row r="519" ht="43.5" customHeight="1" spans="1:33">
       <c r="A519" s="6"/>
-      <c r="B519" s="14"/>
-      <c r="C519" s="14"/>
-      <c r="D519" s="15"/>
-      <c r="E519" s="16"/>
-      <c r="F519" s="15"/>
-      <c r="G519" s="15"/>
-      <c r="H519" s="15"/>
+      <c r="B519" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C519" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D519" s="15">
+        <v>1280325265</v>
+      </c>
+      <c r="E519" s="16">
+        <v>10346556</v>
+      </c>
+      <c r="F519" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="G519" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H519" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="I519" s="20"/>
       <c r="J519" s="19"/>
       <c r="K519" s="18"/>
@@ -28832,19 +28866,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D520" s="15">
-        <v>1280325265</v>
+        <v>1008135243</v>
       </c>
       <c r="E520" s="16">
-        <v>10346556</v>
+        <v>10340418</v>
       </c>
       <c r="F520" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G520" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H520" s="15" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I520" s="20"/>
       <c r="J520" s="19"/>
@@ -28874,27 +28908,13 @@
     </row>
     <row r="521" ht="43.5" customHeight="1" spans="1:33">
       <c r="A521" s="6"/>
-      <c r="B521" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C521" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D521" s="15">
-        <v>1008135243</v>
-      </c>
-      <c r="E521" s="16">
-        <v>10340418</v>
-      </c>
-      <c r="F521" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="G521" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H521" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="D521" s="15"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="15"/>
+      <c r="G521" s="15"/>
+      <c r="H521" s="15"/>
       <c r="I521" s="20"/>
       <c r="J521" s="19"/>
       <c r="K521" s="18"/>
@@ -28923,13 +28943,27 @@
     </row>
     <row r="522" ht="43.5" customHeight="1" spans="1:33">
       <c r="A522" s="6"/>
-      <c r="B522" s="14"/>
-      <c r="C522" s="14"/>
-      <c r="D522" s="15"/>
-      <c r="E522" s="16"/>
-      <c r="F522" s="15"/>
-      <c r="G522" s="15"/>
-      <c r="H522" s="15"/>
+      <c r="B522" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C522" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D522" s="15">
+        <v>1122755871</v>
+      </c>
+      <c r="E522" s="16">
+        <v>10336453</v>
+      </c>
+      <c r="F522" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="G522" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H522" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="I522" s="20"/>
       <c r="J522" s="19"/>
       <c r="K522" s="18"/>
@@ -28962,16 +28996,16 @@
         <v>0.958333333333333</v>
       </c>
       <c r="C523" s="14">
-        <v>0.333333333333333</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D523" s="15">
-        <v>1122755871</v>
+        <v>1032492021</v>
       </c>
       <c r="E523" s="16">
-        <v>10336453</v>
+        <v>10341611</v>
       </c>
       <c r="F523" s="15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G523" s="15" t="s">
         <v>30</v>
@@ -29011,22 +29045,22 @@
         <v>0.958333333333333</v>
       </c>
       <c r="C524" s="14">
-        <v>1.33333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D524" s="15">
-        <v>1032492021</v>
+        <v>1285622455</v>
       </c>
       <c r="E524" s="16">
-        <v>10341611</v>
+        <v>10344307</v>
       </c>
       <c r="F524" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G524" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H524" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I524" s="20"/>
       <c r="J524" s="19"/>
@@ -29063,19 +29097,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D525" s="15">
-        <v>1285622455</v>
+        <v>1122706070</v>
       </c>
       <c r="E525" s="16">
-        <v>10344307</v>
+        <v>10344863</v>
       </c>
       <c r="F525" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G525" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H525" s="15" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I525" s="20"/>
       <c r="J525" s="19"/>
@@ -29112,19 +29146,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D526" s="15">
-        <v>1122706070</v>
+        <v>1021293302</v>
       </c>
       <c r="E526" s="16">
-        <v>10344863</v>
+        <v>10344866</v>
       </c>
       <c r="F526" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G526" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H526" s="15" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I526" s="20"/>
       <c r="J526" s="19"/>
@@ -29161,19 +29195,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D527" s="15">
-        <v>1021293302</v>
+        <v>1000065945</v>
       </c>
       <c r="E527" s="16">
-        <v>10344866</v>
+        <v>10320445</v>
       </c>
       <c r="F527" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G527" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H527" s="15" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I527" s="20"/>
       <c r="J527" s="19"/>
@@ -29201,7 +29235,7 @@
       <c r="AF527" s="18"/>
       <c r="AG527" s="18"/>
     </row>
-    <row r="528" ht="43.5" customHeight="1" spans="1:33">
+    <row r="528" ht="47.25" customHeight="1" spans="1:33">
       <c r="A528" s="6"/>
       <c r="B528" s="14">
         <v>0.958333333333333</v>
@@ -29209,23 +29243,25 @@
       <c r="C528" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D528" s="15">
-        <v>1000065945</v>
+      <c r="D528" s="15" t="s">
+        <v>487</v>
       </c>
       <c r="E528" s="16">
-        <v>10320445</v>
+        <v>10323972</v>
       </c>
       <c r="F528" s="15" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G528" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H528" s="15" t="s">
-        <v>31</v>
+      <c r="H528" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="I528" s="20"/>
-      <c r="J528" s="19"/>
+      <c r="J528" s="19" t="s">
+        <v>489</v>
+      </c>
       <c r="K528" s="18"/>
       <c r="L528" s="18"/>
       <c r="M528" s="18"/>
@@ -29300,13 +29336,13 @@
         <v>10274975</v>
       </c>
       <c r="F530" s="15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G530" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H530" s="15" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I530" s="20"/>
       <c r="J530" s="19"/>
@@ -29349,7 +29385,7 @@
         <v>10346789</v>
       </c>
       <c r="F531" s="15" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G531" s="15" t="s">
         <v>33</v>
@@ -29433,7 +29469,7 @@
         <v>10317235</v>
       </c>
       <c r="F533" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G533" s="15" t="s">
         <v>15</v>
@@ -29482,7 +29518,7 @@
         <v>10344175</v>
       </c>
       <c r="F534" s="15" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G534" s="15" t="s">
         <v>15</v>
@@ -29531,7 +29567,7 @@
         <v>10345545</v>
       </c>
       <c r="F535" s="15" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G535" s="15" t="s">
         <v>15</v>
@@ -29573,20 +29609,20 @@
       <c r="C536" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D536" s="15">
-        <v>1281887573</v>
+      <c r="D536" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="E536" s="16">
-        <v>10346088</v>
+        <v>10331002</v>
       </c>
       <c r="F536" s="15" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G536" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H536" s="15" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="I536" s="20"/>
       <c r="J536" s="19"/>
@@ -29622,20 +29658,20 @@
       <c r="C537" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D537" s="15" t="s">
-        <v>494</v>
+      <c r="D537" s="15">
+        <v>1204108343</v>
       </c>
       <c r="E537" s="16">
-        <v>10331002</v>
+        <v>10331008</v>
       </c>
       <c r="F537" s="15" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G537" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H537" s="15" t="s">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="I537" s="20"/>
       <c r="J537" s="19"/>
@@ -29665,27 +29701,13 @@
     </row>
     <row r="538" ht="43.5" customHeight="1" spans="1:33">
       <c r="A538" s="6"/>
-      <c r="B538" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C538" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D538" s="15">
-        <v>1204108343</v>
-      </c>
-      <c r="E538" s="16">
-        <v>10331008</v>
-      </c>
-      <c r="F538" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="G538" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H538" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
+      <c r="D538" s="15"/>
+      <c r="E538" s="16"/>
+      <c r="F538" s="15"/>
+      <c r="G538" s="15"/>
+      <c r="H538" s="15"/>
       <c r="I538" s="20"/>
       <c r="J538" s="19"/>
       <c r="K538" s="18"/>
@@ -29714,13 +29736,27 @@
     </row>
     <row r="539" ht="43.5" customHeight="1" spans="1:33">
       <c r="A539" s="6"/>
-      <c r="B539" s="14"/>
-      <c r="C539" s="14"/>
-      <c r="D539" s="15"/>
-      <c r="E539" s="16"/>
-      <c r="F539" s="15"/>
-      <c r="G539" s="15"/>
-      <c r="H539" s="15"/>
+      <c r="B539" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C539" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D539" s="15">
+        <v>1115460558</v>
+      </c>
+      <c r="E539" s="16">
+        <v>10338462</v>
+      </c>
+      <c r="F539" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="G539" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H539" s="15" t="s">
+        <v>422</v>
+      </c>
       <c r="I539" s="20"/>
       <c r="J539" s="19"/>
       <c r="K539" s="18"/>
@@ -29756,13 +29792,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D540" s="15">
-        <v>1115460558</v>
+        <v>1559633455</v>
       </c>
       <c r="E540" s="16">
-        <v>10338462</v>
+        <v>10343475</v>
       </c>
       <c r="F540" s="15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G540" s="15" t="s">
         <v>137</v>
@@ -29805,19 +29841,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D541" s="15">
-        <v>1559633455</v>
+        <v>1509946439</v>
       </c>
       <c r="E541" s="16">
-        <v>10343475</v>
+        <v>10344252</v>
       </c>
       <c r="F541" s="15" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G541" s="15" t="s">
         <v>137</v>
       </c>
       <c r="H541" s="15" t="s">
-        <v>422</v>
+        <v>138</v>
       </c>
       <c r="I541" s="20"/>
       <c r="J541" s="19"/>
@@ -29854,13 +29890,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D542" s="15">
-        <v>1509946439</v>
+        <v>1090642201</v>
       </c>
       <c r="E542" s="16">
-        <v>10344252</v>
+        <v>10344770</v>
       </c>
       <c r="F542" s="15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G542" s="15" t="s">
         <v>137</v>
@@ -29902,20 +29938,20 @@
       <c r="C543" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D543" s="15">
-        <v>1090642201</v>
+      <c r="D543" s="15" t="s">
+        <v>503</v>
       </c>
       <c r="E543" s="16">
-        <v>10344770</v>
+        <v>10344214</v>
       </c>
       <c r="F543" s="15" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G543" s="15" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="H543" s="15" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="I543" s="20"/>
       <c r="J543" s="19"/>
@@ -29952,13 +29988,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D544" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E544" s="16">
-        <v>10344214</v>
+        <v>10346285</v>
       </c>
       <c r="F544" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G544" s="15" t="s">
         <v>12</v>
@@ -29994,27 +30030,13 @@
     </row>
     <row r="545" ht="43.5" customHeight="1" spans="1:33">
       <c r="A545" s="6"/>
-      <c r="B545" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C545" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D545" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="E545" s="16">
-        <v>10346285</v>
-      </c>
-      <c r="F545" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="G545" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H545" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="D545" s="15"/>
+      <c r="E545" s="16"/>
+      <c r="F545" s="15"/>
+      <c r="G545" s="15"/>
+      <c r="H545" s="15"/>
       <c r="I545" s="20"/>
       <c r="J545" s="19"/>
       <c r="K545" s="18"/>
@@ -30043,13 +30065,27 @@
     </row>
     <row r="546" ht="43.5" customHeight="1" spans="1:33">
       <c r="A546" s="6"/>
-      <c r="B546" s="14"/>
-      <c r="C546" s="14"/>
-      <c r="D546" s="15"/>
-      <c r="E546" s="16"/>
-      <c r="F546" s="15"/>
-      <c r="G546" s="15"/>
-      <c r="H546" s="15"/>
+      <c r="B546" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C546" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D546" s="15">
+        <v>1080545669</v>
+      </c>
+      <c r="E546" s="16">
+        <v>10320297</v>
+      </c>
+      <c r="F546" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="G546" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H546" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="I546" s="20"/>
       <c r="J546" s="19"/>
       <c r="K546" s="18"/>
@@ -30078,27 +30114,13 @@
     </row>
     <row r="547" ht="43.5" customHeight="1" spans="1:33">
       <c r="A547" s="6"/>
-      <c r="B547" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C547" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D547" s="15">
-        <v>1080545669</v>
-      </c>
-      <c r="E547" s="16">
-        <v>10320297</v>
-      </c>
-      <c r="F547" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="G547" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H547" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="D547" s="15"/>
+      <c r="E547" s="16"/>
+      <c r="F547" s="15"/>
+      <c r="G547" s="15"/>
+      <c r="H547" s="15"/>
       <c r="I547" s="20"/>
       <c r="J547" s="19"/>
       <c r="K547" s="18"/>
@@ -30125,15 +30147,15 @@
       <c r="AF547" s="18"/>
       <c r="AG547" s="18"/>
     </row>
-    <row r="548" ht="43.5" customHeight="1" spans="1:33">
+    <row r="548" ht="15" customHeight="1" spans="1:33">
       <c r="A548" s="6"/>
-      <c r="B548" s="14"/>
-      <c r="C548" s="14"/>
-      <c r="D548" s="15"/>
-      <c r="E548" s="16"/>
-      <c r="F548" s="15"/>
-      <c r="G548" s="15"/>
-      <c r="H548" s="15"/>
+      <c r="B548" s="28"/>
+      <c r="C548" s="28"/>
+      <c r="D548" s="29"/>
+      <c r="E548" s="30"/>
+      <c r="F548" s="29"/>
+      <c r="G548" s="29"/>
+      <c r="H548" s="29"/>
       <c r="I548" s="20"/>
       <c r="J548" s="19"/>
       <c r="K548" s="18"/>
@@ -30160,41 +30182,6 @@
       <c r="AF548" s="18"/>
       <c r="AG548" s="18"/>
     </row>
-    <row r="549" ht="15" customHeight="1" spans="1:33">
-      <c r="A549" s="6"/>
-      <c r="B549" s="26"/>
-      <c r="C549" s="26"/>
-      <c r="D549" s="27"/>
-      <c r="E549" s="28"/>
-      <c r="F549" s="27"/>
-      <c r="G549" s="27"/>
-      <c r="H549" s="27"/>
-      <c r="I549" s="20"/>
-      <c r="J549" s="19"/>
-      <c r="K549" s="18"/>
-      <c r="L549" s="18"/>
-      <c r="M549" s="18"/>
-      <c r="N549" s="18"/>
-      <c r="O549" s="18"/>
-      <c r="P549" s="18"/>
-      <c r="Q549" s="18"/>
-      <c r="R549" s="18"/>
-      <c r="S549" s="18"/>
-      <c r="T549" s="18"/>
-      <c r="U549" s="18"/>
-      <c r="V549" s="18"/>
-      <c r="W549" s="18"/>
-      <c r="X549" s="18"/>
-      <c r="Y549" s="18"/>
-      <c r="Z549" s="18"/>
-      <c r="AA549" s="18"/>
-      <c r="AB549" s="18"/>
-      <c r="AC549" s="18"/>
-      <c r="AD549" s="18"/>
-      <c r="AE549" s="18"/>
-      <c r="AF549" s="18"/>
-      <c r="AG549" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A2:A3"/>
@@ -30213,9 +30200,9 @@
     <mergeCell ref="A384:A385"/>
     <mergeCell ref="A417:A418"/>
     <mergeCell ref="A435:A436"/>
-    <mergeCell ref="A461:A462"/>
-    <mergeCell ref="A486:A487"/>
-    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="A485:A486"/>
+    <mergeCell ref="A513:A514"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
